--- a/artfynd/A 32199-2023.xlsx
+++ b/artfynd/A 32199-2023.xlsx
@@ -3469,10 +3469,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111273666</v>
+        <v>111273667</v>
       </c>
       <c r="B26" t="n">
-        <v>96348</v>
+        <v>89423</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3481,25 +3481,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>220787</v>
+        <v>5432</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3509,10 +3509,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>591499.5271172373</v>
+        <v>591618.866522243</v>
       </c>
       <c r="R26" t="n">
-        <v>7043317.696102448</v>
+        <v>7043352.399297187</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3581,10 +3581,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111273663</v>
+        <v>111273659</v>
       </c>
       <c r="B27" t="n">
-        <v>89686</v>
+        <v>89845</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3593,25 +3593,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>658</v>
+        <v>1209</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3621,10 +3621,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>591652.4436271309</v>
+        <v>591495.2093399345</v>
       </c>
       <c r="R27" t="n">
-        <v>7043413.675855185</v>
+        <v>7043327.847347787</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3693,10 +3693,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111273655</v>
+        <v>111273672</v>
       </c>
       <c r="B28" t="n">
-        <v>73696</v>
+        <v>77515</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3709,21 +3709,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3733,10 +3733,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>591622.4606337334</v>
+        <v>591719.3732997013</v>
       </c>
       <c r="R28" t="n">
-        <v>7043398.517451782</v>
+        <v>7043419.6232786</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3805,10 +3805,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111273660</v>
+        <v>111273663</v>
       </c>
       <c r="B29" t="n">
-        <v>89845</v>
+        <v>89686</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3817,25 +3817,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1209</v>
+        <v>658</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3845,10 +3845,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>591641.1794901572</v>
+        <v>591652.4436271309</v>
       </c>
       <c r="R29" t="n">
-        <v>7043416.478903031</v>
+        <v>7043413.675855185</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3917,10 +3917,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111273669</v>
+        <v>111273661</v>
       </c>
       <c r="B30" t="n">
-        <v>77515</v>
+        <v>89686</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3933,21 +3933,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6425</v>
+        <v>658</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3957,10 +3957,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>591616.806528918</v>
+        <v>591636.9769660851</v>
       </c>
       <c r="R30" t="n">
-        <v>7043377.357856153</v>
+        <v>7043422.612332962</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4029,10 +4029,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111273667</v>
+        <v>111273670</v>
       </c>
       <c r="B31" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4045,21 +4045,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4069,10 +4069,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>591618.866522243</v>
+        <v>591622.4606337334</v>
       </c>
       <c r="R31" t="n">
-        <v>7043352.399297187</v>
+        <v>7043398.517451782</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4141,10 +4141,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111273670</v>
+        <v>111273655</v>
       </c>
       <c r="B32" t="n">
-        <v>77515</v>
+        <v>73696</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4157,21 +4157,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4253,10 +4253,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111273672</v>
+        <v>111273660</v>
       </c>
       <c r="B33" t="n">
-        <v>77515</v>
+        <v>89845</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4265,25 +4265,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6425</v>
+        <v>1209</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4293,10 +4293,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>591719.3732997013</v>
+        <v>591641.1794901572</v>
       </c>
       <c r="R33" t="n">
-        <v>7043419.6232786</v>
+        <v>7043416.478903031</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4365,10 +4365,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111273661</v>
+        <v>111273656</v>
       </c>
       <c r="B34" t="n">
-        <v>89686</v>
+        <v>73696</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4381,21 +4381,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>658</v>
+        <v>6440</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4405,10 +4405,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>591636.9769660851</v>
+        <v>591725.0424782543</v>
       </c>
       <c r="R34" t="n">
-        <v>7043422.612332962</v>
+        <v>7043424.7006835</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4477,10 +4477,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111273656</v>
+        <v>111273666</v>
       </c>
       <c r="B35" t="n">
-        <v>73696</v>
+        <v>96348</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4489,25 +4489,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6440</v>
+        <v>220787</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4517,10 +4517,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>591725.0424782543</v>
+        <v>591499.5271172373</v>
       </c>
       <c r="R35" t="n">
-        <v>7043424.7006835</v>
+        <v>7043317.696102448</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4589,10 +4589,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111273659</v>
+        <v>111273664</v>
       </c>
       <c r="B36" t="n">
-        <v>89845</v>
+        <v>89590</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4605,21 +4605,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1209</v>
+        <v>48</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Romell) Singer</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4629,10 +4629,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>591495.2093399345</v>
+        <v>591673.2841504611</v>
       </c>
       <c r="R36" t="n">
-        <v>7043327.847347787</v>
+        <v>7043420.083276978</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4701,10 +4701,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111273664</v>
+        <v>111273669</v>
       </c>
       <c r="B37" t="n">
-        <v>89590</v>
+        <v>77515</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4713,25 +4713,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>48</v>
+        <v>6425</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Romell) Singer</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4741,10 +4741,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>591673.2841504611</v>
+        <v>591616.806528918</v>
       </c>
       <c r="R37" t="n">
-        <v>7043420.083276978</v>
+        <v>7043377.357856153</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4813,10 +4813,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111315141</v>
+        <v>111267164</v>
       </c>
       <c r="B38" t="n">
-        <v>96348</v>
+        <v>89590</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4829,38 +4829,35 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>220787</v>
+        <v>48</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>(Romell) Singer</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>591486.5005135566</v>
+        <v>591635.2558426465</v>
       </c>
       <c r="R38" t="n">
-        <v>7043319.555657836</v>
+        <v>7043404.693209249</v>
       </c>
       <c r="S38" t="n">
         <v>25</v>
@@ -5041,10 +5038,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111315142</v>
+        <v>111268460</v>
       </c>
       <c r="B40" t="n">
-        <v>89405</v>
+        <v>89686</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5057,34 +5054,35 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>591469.6177441666</v>
+        <v>591472.6953434804</v>
       </c>
       <c r="R40" t="n">
-        <v>7043315.49674286</v>
+        <v>7043317.372138057</v>
       </c>
       <c r="S40" t="n">
         <v>25</v>
@@ -5153,10 +5151,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111315150</v>
+        <v>111266420</v>
       </c>
       <c r="B41" t="n">
-        <v>89369</v>
+        <v>73696</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5165,38 +5163,39 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>5447</v>
+        <v>6440</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>591671.190636521</v>
+        <v>591722.3379231346</v>
       </c>
       <c r="R41" t="n">
-        <v>7043415.108879722</v>
+        <v>7043409.880360964</v>
       </c>
       <c r="S41" t="n">
         <v>25</v>
@@ -5265,10 +5264,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111315149</v>
+        <v>111266309</v>
       </c>
       <c r="B42" t="n">
-        <v>89686</v>
+        <v>77515</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5281,34 +5280,35 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>658</v>
+        <v>6425</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>591670.9593730925</v>
+        <v>591747.0822552936</v>
       </c>
       <c r="R42" t="n">
-        <v>7043423.143536596</v>
+        <v>7043436.057239689</v>
       </c>
       <c r="S42" t="n">
         <v>25</v>
@@ -5377,10 +5377,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111268512</v>
+        <v>111315142</v>
       </c>
       <c r="B43" t="n">
-        <v>56398</v>
+        <v>89405</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5393,40 +5393,34 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P43" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>591472.6953434804</v>
+        <v>591469.6177441666</v>
       </c>
       <c r="R43" t="n">
-        <v>7043317.372138057</v>
+        <v>7043315.49674286</v>
       </c>
       <c r="S43" t="n">
         <v>25</v>
@@ -5495,10 +5489,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111315146</v>
+        <v>111315148</v>
       </c>
       <c r="B44" t="n">
-        <v>77515</v>
+        <v>89686</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5511,21 +5505,21 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6425</v>
+        <v>658</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5535,10 +5529,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>591616.7319226691</v>
+        <v>591645.4590963478</v>
       </c>
       <c r="R44" t="n">
-        <v>7043364.400079632</v>
+        <v>7043407.667238996</v>
       </c>
       <c r="S44" t="n">
         <v>25</v>
@@ -5607,10 +5601,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111315148</v>
+        <v>111315141</v>
       </c>
       <c r="B45" t="n">
-        <v>89686</v>
+        <v>96348</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5619,38 +5613,42 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="P45" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>591645.4590963478</v>
+        <v>591486.5005135566</v>
       </c>
       <c r="R45" t="n">
-        <v>7043407.667238996</v>
+        <v>7043319.555657836</v>
       </c>
       <c r="S45" t="n">
         <v>25</v>
@@ -5719,10 +5717,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111266420</v>
+        <v>111315146</v>
       </c>
       <c r="B46" t="n">
-        <v>73696</v>
+        <v>77515</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5735,35 +5733,34 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>591722.3379231346</v>
+        <v>591616.7319226691</v>
       </c>
       <c r="R46" t="n">
-        <v>7043409.880360964</v>
+        <v>7043364.400079632</v>
       </c>
       <c r="S46" t="n">
         <v>25</v>
@@ -5832,7 +5829,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111315143</v>
+        <v>111315149</v>
       </c>
       <c r="B47" t="n">
         <v>89686</v>
@@ -5872,10 +5869,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>591477.5224061215</v>
+        <v>591670.9593730925</v>
       </c>
       <c r="R47" t="n">
-        <v>7043320.638036993</v>
+        <v>7043423.143536596</v>
       </c>
       <c r="S47" t="n">
         <v>25</v>
@@ -5944,10 +5941,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111266309</v>
+        <v>111268512</v>
       </c>
       <c r="B48" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5960,35 +5957,40 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P48" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>591747.0822552936</v>
+        <v>591472.6953434804</v>
       </c>
       <c r="R48" t="n">
-        <v>7043436.057239689</v>
+        <v>7043317.372138057</v>
       </c>
       <c r="S48" t="n">
         <v>25</v>
@@ -6178,10 +6180,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111267164</v>
+        <v>111315147</v>
       </c>
       <c r="B50" t="n">
-        <v>89590</v>
+        <v>73696</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6190,39 +6192,38 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>48</v>
+        <v>6440</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Romell) Singer</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>591635.2558426465</v>
+        <v>591620.5314988887</v>
       </c>
       <c r="R50" t="n">
-        <v>7043404.693209249</v>
+        <v>7043403.376114395</v>
       </c>
       <c r="S50" t="n">
         <v>25</v>
@@ -6291,7 +6292,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111268460</v>
+        <v>111315143</v>
       </c>
       <c r="B51" t="n">
         <v>89686</v>
@@ -6325,17 +6326,16 @@
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>591472.6953434804</v>
+        <v>591477.5224061215</v>
       </c>
       <c r="R51" t="n">
-        <v>7043317.372138057</v>
+        <v>7043320.638036993</v>
       </c>
       <c r="S51" t="n">
         <v>25</v>
@@ -6404,10 +6404,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111315147</v>
+        <v>111315151</v>
       </c>
       <c r="B52" t="n">
-        <v>73696</v>
+        <v>89590</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6416,25 +6416,25 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>6440</v>
+        <v>48</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Romell) Singer</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6444,10 +6444,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>591620.5314988887</v>
+        <v>591670.9593730925</v>
       </c>
       <c r="R52" t="n">
-        <v>7043403.376114395</v>
+        <v>7043423.143536596</v>
       </c>
       <c r="S52" t="n">
         <v>25</v>
@@ -6516,10 +6516,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111315151</v>
+        <v>111315150</v>
       </c>
       <c r="B53" t="n">
-        <v>89590</v>
+        <v>89369</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6528,25 +6528,25 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>48</v>
+        <v>5447</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Romell) Singer</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6556,10 +6556,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>591670.9593730925</v>
+        <v>591671.190636521</v>
       </c>
       <c r="R53" t="n">
-        <v>7043423.143536596</v>
+        <v>7043415.108879722</v>
       </c>
       <c r="S53" t="n">
         <v>25</v>

--- a/artfynd/A 32199-2023.xlsx
+++ b/artfynd/A 32199-2023.xlsx
@@ -3469,10 +3469,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111273667</v>
+        <v>111273656</v>
       </c>
       <c r="B26" t="n">
-        <v>89423</v>
+        <v>73696</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3485,21 +3485,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>5432</v>
+        <v>6440</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3509,10 +3509,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>591618.866522243</v>
+        <v>591725.0424782543</v>
       </c>
       <c r="R26" t="n">
-        <v>7043352.399297187</v>
+        <v>7043424.7006835</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3581,10 +3581,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111273659</v>
+        <v>111273666</v>
       </c>
       <c r="B27" t="n">
-        <v>89845</v>
+        <v>96348</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3597,21 +3597,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1209</v>
+        <v>220787</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3621,10 +3621,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>591495.2093399345</v>
+        <v>591499.5271172373</v>
       </c>
       <c r="R27" t="n">
-        <v>7043327.847347787</v>
+        <v>7043317.696102448</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3693,10 +3693,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111273672</v>
+        <v>111273667</v>
       </c>
       <c r="B28" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3709,21 +3709,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3733,10 +3733,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>591719.3732997013</v>
+        <v>591618.866522243</v>
       </c>
       <c r="R28" t="n">
-        <v>7043419.6232786</v>
+        <v>7043352.399297187</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3805,10 +3805,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111273663</v>
+        <v>111273664</v>
       </c>
       <c r="B29" t="n">
-        <v>89686</v>
+        <v>89590</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3817,25 +3817,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>658</v>
+        <v>48</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Romell) Singer</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3845,10 +3845,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>591652.4436271309</v>
+        <v>591673.2841504611</v>
       </c>
       <c r="R29" t="n">
-        <v>7043413.675855185</v>
+        <v>7043420.083276978</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3917,10 +3917,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111273661</v>
+        <v>111273655</v>
       </c>
       <c r="B30" t="n">
-        <v>89686</v>
+        <v>73696</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3933,21 +3933,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>658</v>
+        <v>6440</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3957,10 +3957,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>591636.9769660851</v>
+        <v>591622.4606337334</v>
       </c>
       <c r="R30" t="n">
-        <v>7043422.612332962</v>
+        <v>7043398.517451782</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4029,10 +4029,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111273670</v>
+        <v>111273659</v>
       </c>
       <c r="B31" t="n">
-        <v>77515</v>
+        <v>89845</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4041,25 +4041,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6425</v>
+        <v>1209</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4069,10 +4069,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>591622.4606337334</v>
+        <v>591495.2093399345</v>
       </c>
       <c r="R31" t="n">
-        <v>7043398.517451782</v>
+        <v>7043327.847347787</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4141,10 +4141,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111273655</v>
+        <v>111273661</v>
       </c>
       <c r="B32" t="n">
-        <v>73696</v>
+        <v>89686</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4157,21 +4157,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6440</v>
+        <v>658</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4181,10 +4181,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>591622.4606337334</v>
+        <v>591636.9769660851</v>
       </c>
       <c r="R32" t="n">
-        <v>7043398.517451782</v>
+        <v>7043422.612332962</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4253,10 +4253,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111273660</v>
+        <v>111273663</v>
       </c>
       <c r="B33" t="n">
-        <v>89845</v>
+        <v>89686</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4265,25 +4265,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1209</v>
+        <v>658</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4293,10 +4293,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>591641.1794901572</v>
+        <v>591652.4436271309</v>
       </c>
       <c r="R33" t="n">
-        <v>7043416.478903031</v>
+        <v>7043413.675855185</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4365,10 +4365,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111273656</v>
+        <v>111273660</v>
       </c>
       <c r="B34" t="n">
-        <v>73696</v>
+        <v>89845</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4377,25 +4377,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6440</v>
+        <v>1209</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4405,10 +4405,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>591725.0424782543</v>
+        <v>591641.1794901572</v>
       </c>
       <c r="R34" t="n">
-        <v>7043424.7006835</v>
+        <v>7043416.478903031</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4477,10 +4477,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111273666</v>
+        <v>111273670</v>
       </c>
       <c r="B35" t="n">
-        <v>96348</v>
+        <v>77515</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4489,25 +4489,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4517,10 +4517,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>591499.5271172373</v>
+        <v>591622.4606337334</v>
       </c>
       <c r="R35" t="n">
-        <v>7043317.696102448</v>
+        <v>7043398.517451782</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4589,10 +4589,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111273664</v>
+        <v>111273672</v>
       </c>
       <c r="B36" t="n">
-        <v>89590</v>
+        <v>77515</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4601,25 +4601,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>48</v>
+        <v>6425</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Romell) Singer</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4629,10 +4629,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>591673.2841504611</v>
+        <v>591719.3732997013</v>
       </c>
       <c r="R36" t="n">
-        <v>7043420.083276978</v>
+        <v>7043419.6232786</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4813,10 +4813,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111267164</v>
+        <v>111315150</v>
       </c>
       <c r="B38" t="n">
-        <v>89590</v>
+        <v>89369</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4825,39 +4825,38 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>48</v>
+        <v>5447</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Romell) Singer</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>591635.2558426465</v>
+        <v>591671.190636521</v>
       </c>
       <c r="R38" t="n">
-        <v>7043404.693209249</v>
+        <v>7043415.108879722</v>
       </c>
       <c r="S38" t="n">
         <v>25</v>
@@ -4926,10 +4925,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111315145</v>
+        <v>111266309</v>
       </c>
       <c r="B39" t="n">
-        <v>89845</v>
+        <v>77515</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4938,38 +4937,39 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1209</v>
+        <v>6425</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>591478.5830416525</v>
+        <v>591747.0822552936</v>
       </c>
       <c r="R39" t="n">
-        <v>7043314.860723522</v>
+        <v>7043436.057239689</v>
       </c>
       <c r="S39" t="n">
         <v>25</v>
@@ -5038,10 +5038,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111268460</v>
+        <v>111315151</v>
       </c>
       <c r="B40" t="n">
-        <v>89686</v>
+        <v>89590</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5050,39 +5050,38 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>658</v>
+        <v>48</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Romell) Singer</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>591472.6953434804</v>
+        <v>591670.9593730925</v>
       </c>
       <c r="R40" t="n">
-        <v>7043317.372138057</v>
+        <v>7043423.143536596</v>
       </c>
       <c r="S40" t="n">
         <v>25</v>
@@ -5264,7 +5263,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111266309</v>
+        <v>111315146</v>
       </c>
       <c r="B42" t="n">
         <v>77515</v>
@@ -5298,17 +5297,16 @@
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>591747.0822552936</v>
+        <v>591616.7319226691</v>
       </c>
       <c r="R42" t="n">
-        <v>7043436.057239689</v>
+        <v>7043364.400079632</v>
       </c>
       <c r="S42" t="n">
         <v>25</v>
@@ -5377,10 +5375,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111315142</v>
+        <v>111315141</v>
       </c>
       <c r="B43" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5389,38 +5387,42 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="P43" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>591469.6177441666</v>
+        <v>591486.5005135566</v>
       </c>
       <c r="R43" t="n">
-        <v>7043315.49674286</v>
+        <v>7043319.555657836</v>
       </c>
       <c r="S43" t="n">
         <v>25</v>
@@ -5489,7 +5491,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111315148</v>
+        <v>111315149</v>
       </c>
       <c r="B44" t="n">
         <v>89686</v>
@@ -5529,10 +5531,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>591645.4590963478</v>
+        <v>591670.9593730925</v>
       </c>
       <c r="R44" t="n">
-        <v>7043407.667238996</v>
+        <v>7043423.143536596</v>
       </c>
       <c r="S44" t="n">
         <v>25</v>
@@ -5601,10 +5603,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111315141</v>
+        <v>111315142</v>
       </c>
       <c r="B45" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5613,42 +5615,38 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>591486.5005135566</v>
+        <v>591469.6177441666</v>
       </c>
       <c r="R45" t="n">
-        <v>7043319.555657836</v>
+        <v>7043315.49674286</v>
       </c>
       <c r="S45" t="n">
         <v>25</v>
@@ -5717,10 +5715,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111315146</v>
+        <v>111315145</v>
       </c>
       <c r="B46" t="n">
-        <v>77515</v>
+        <v>89845</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5729,25 +5727,25 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6425</v>
+        <v>1209</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5757,10 +5755,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>591616.7319226691</v>
+        <v>591478.5830416525</v>
       </c>
       <c r="R46" t="n">
-        <v>7043364.400079632</v>
+        <v>7043314.860723522</v>
       </c>
       <c r="S46" t="n">
         <v>25</v>
@@ -5829,7 +5827,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111315149</v>
+        <v>111315148</v>
       </c>
       <c r="B47" t="n">
         <v>89686</v>
@@ -5869,10 +5867,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>591670.9593730925</v>
+        <v>591645.4590963478</v>
       </c>
       <c r="R47" t="n">
-        <v>7043423.143536596</v>
+        <v>7043407.667238996</v>
       </c>
       <c r="S47" t="n">
         <v>25</v>
@@ -5941,10 +5939,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111268512</v>
+        <v>111268460</v>
       </c>
       <c r="B48" t="n">
-        <v>56398</v>
+        <v>89686</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5957,30 +5955,25 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>100109</v>
+        <v>658</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P48" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
@@ -6059,10 +6052,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111315139</v>
+        <v>111268512</v>
       </c>
       <c r="B49" t="n">
-        <v>96348</v>
+        <v>56398</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6071,30 +6064,32 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>1</t>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -6103,10 +6098,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>591510.9235177813</v>
+        <v>591472.6953434804</v>
       </c>
       <c r="R49" t="n">
-        <v>7043279.155835367</v>
+        <v>7043317.372138057</v>
       </c>
       <c r="S49" t="n">
         <v>25</v>
@@ -6149,11 +6144,6 @@
       <c r="AB49" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC49" t="inlineStr">
-        <is>
-          <t>Plus massor av bladrosetter</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6180,10 +6170,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111315147</v>
+        <v>111315143</v>
       </c>
       <c r="B50" t="n">
-        <v>73696</v>
+        <v>89686</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6196,21 +6186,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6440</v>
+        <v>658</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6220,10 +6210,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>591620.5314988887</v>
+        <v>591477.5224061215</v>
       </c>
       <c r="R50" t="n">
-        <v>7043403.376114395</v>
+        <v>7043320.638036993</v>
       </c>
       <c r="S50" t="n">
         <v>25</v>
@@ -6292,10 +6282,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111315143</v>
+        <v>111315147</v>
       </c>
       <c r="B51" t="n">
-        <v>89686</v>
+        <v>73696</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6308,21 +6298,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>658</v>
+        <v>6440</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6332,10 +6322,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>591477.5224061215</v>
+        <v>591620.5314988887</v>
       </c>
       <c r="R51" t="n">
-        <v>7043320.638036993</v>
+        <v>7043403.376114395</v>
       </c>
       <c r="S51" t="n">
         <v>25</v>
@@ -6404,7 +6394,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111315151</v>
+        <v>111267164</v>
       </c>
       <c r="B52" t="n">
         <v>89590</v>
@@ -6438,16 +6428,17 @@
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>591670.9593730925</v>
+        <v>591635.2558426465</v>
       </c>
       <c r="R52" t="n">
-        <v>7043423.143536596</v>
+        <v>7043404.693209249</v>
       </c>
       <c r="S52" t="n">
         <v>25</v>
@@ -6516,10 +6507,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111315150</v>
+        <v>111315139</v>
       </c>
       <c r="B53" t="n">
-        <v>89369</v>
+        <v>96348</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6528,38 +6519,42 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>5447</v>
+        <v>220787</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P53" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>591671.190636521</v>
+        <v>591510.9235177813</v>
       </c>
       <c r="R53" t="n">
-        <v>7043415.108879722</v>
+        <v>7043279.155835367</v>
       </c>
       <c r="S53" t="n">
         <v>25</v>
@@ -6602,6 +6597,11 @@
       <c r="AB53" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC53" t="inlineStr">
+        <is>
+          <t>Plus massor av bladrosetter</t>
         </is>
       </c>
       <c r="AD53" t="b">

--- a/artfynd/A 32199-2023.xlsx
+++ b/artfynd/A 32199-2023.xlsx
@@ -3469,10 +3469,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111273656</v>
+        <v>111273661</v>
       </c>
       <c r="B26" t="n">
-        <v>73696</v>
+        <v>89686</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3485,21 +3485,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6440</v>
+        <v>658</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3509,10 +3509,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>591725.0424782543</v>
+        <v>591636.9769660851</v>
       </c>
       <c r="R26" t="n">
-        <v>7043424.7006835</v>
+        <v>7043422.612332962</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3581,10 +3581,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111273666</v>
+        <v>111273656</v>
       </c>
       <c r="B27" t="n">
-        <v>96348</v>
+        <v>73696</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3593,25 +3593,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>220787</v>
+        <v>6440</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3621,10 +3621,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>591499.5271172373</v>
+        <v>591725.0424782543</v>
       </c>
       <c r="R27" t="n">
-        <v>7043317.696102448</v>
+        <v>7043424.7006835</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3693,10 +3693,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111273667</v>
+        <v>111273663</v>
       </c>
       <c r="B28" t="n">
-        <v>89423</v>
+        <v>89686</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3709,21 +3709,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5432</v>
+        <v>658</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3733,10 +3733,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>591618.866522243</v>
+        <v>591652.4436271309</v>
       </c>
       <c r="R28" t="n">
-        <v>7043352.399297187</v>
+        <v>7043413.675855185</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3805,10 +3805,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111273664</v>
+        <v>111273670</v>
       </c>
       <c r="B29" t="n">
-        <v>89590</v>
+        <v>77515</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3817,25 +3817,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>48</v>
+        <v>6425</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Romell) Singer</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3845,10 +3845,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>591673.2841504611</v>
+        <v>591622.4606337334</v>
       </c>
       <c r="R29" t="n">
-        <v>7043420.083276978</v>
+        <v>7043398.517451782</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3917,10 +3917,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111273655</v>
+        <v>111273659</v>
       </c>
       <c r="B30" t="n">
-        <v>73696</v>
+        <v>89845</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3929,25 +3929,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6440</v>
+        <v>1209</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3957,10 +3957,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>591622.4606337334</v>
+        <v>591495.2093399345</v>
       </c>
       <c r="R30" t="n">
-        <v>7043398.517451782</v>
+        <v>7043327.847347787</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4029,10 +4029,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111273659</v>
+        <v>111273666</v>
       </c>
       <c r="B31" t="n">
-        <v>89845</v>
+        <v>96348</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4045,21 +4045,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1209</v>
+        <v>220787</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4069,10 +4069,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>591495.2093399345</v>
+        <v>591499.5271172373</v>
       </c>
       <c r="R31" t="n">
-        <v>7043327.847347787</v>
+        <v>7043317.696102448</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4141,10 +4141,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111273661</v>
+        <v>111273655</v>
       </c>
       <c r="B32" t="n">
-        <v>89686</v>
+        <v>73696</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4157,21 +4157,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>658</v>
+        <v>6440</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4181,10 +4181,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>591636.9769660851</v>
+        <v>591622.4606337334</v>
       </c>
       <c r="R32" t="n">
-        <v>7043422.612332962</v>
+        <v>7043398.517451782</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4253,10 +4253,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111273663</v>
+        <v>111273672</v>
       </c>
       <c r="B33" t="n">
-        <v>89686</v>
+        <v>77515</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4269,21 +4269,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>658</v>
+        <v>6425</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4293,10 +4293,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>591652.4436271309</v>
+        <v>591719.3732997013</v>
       </c>
       <c r="R33" t="n">
-        <v>7043413.675855185</v>
+        <v>7043419.6232786</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4477,7 +4477,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111273670</v>
+        <v>111273669</v>
       </c>
       <c r="B35" t="n">
         <v>77515</v>
@@ -4517,10 +4517,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>591622.4606337334</v>
+        <v>591616.806528918</v>
       </c>
       <c r="R35" t="n">
-        <v>7043398.517451782</v>
+        <v>7043377.357856153</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4589,10 +4589,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111273672</v>
+        <v>111273667</v>
       </c>
       <c r="B36" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4605,21 +4605,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4629,10 +4629,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>591719.3732997013</v>
+        <v>591618.866522243</v>
       </c>
       <c r="R36" t="n">
-        <v>7043419.6232786</v>
+        <v>7043352.399297187</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4701,10 +4701,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111273669</v>
+        <v>111273664</v>
       </c>
       <c r="B37" t="n">
-        <v>77515</v>
+        <v>89590</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4713,25 +4713,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6425</v>
+        <v>48</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Romell) Singer</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4741,10 +4741,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>591616.806528918</v>
+        <v>591673.2841504611</v>
       </c>
       <c r="R37" t="n">
-        <v>7043377.357856153</v>
+        <v>7043420.083276978</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4813,10 +4813,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111315150</v>
+        <v>111315145</v>
       </c>
       <c r="B38" t="n">
-        <v>89369</v>
+        <v>89845</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4825,25 +4825,25 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>5447</v>
+        <v>1209</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4853,10 +4853,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>591671.190636521</v>
+        <v>591478.5830416525</v>
       </c>
       <c r="R38" t="n">
-        <v>7043415.108879722</v>
+        <v>7043314.860723522</v>
       </c>
       <c r="S38" t="n">
         <v>25</v>
@@ -4925,10 +4925,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111266309</v>
+        <v>111315149</v>
       </c>
       <c r="B39" t="n">
-        <v>77515</v>
+        <v>89686</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4941,35 +4941,34 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6425</v>
+        <v>658</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>591747.0822552936</v>
+        <v>591670.9593730925</v>
       </c>
       <c r="R39" t="n">
-        <v>7043436.057239689</v>
+        <v>7043423.143536596</v>
       </c>
       <c r="S39" t="n">
         <v>25</v>
@@ -5038,10 +5037,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111315151</v>
+        <v>111315148</v>
       </c>
       <c r="B40" t="n">
-        <v>89590</v>
+        <v>89686</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5050,25 +5049,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>48</v>
+        <v>658</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Romell) Singer</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5078,10 +5077,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>591670.9593730925</v>
+        <v>591645.4590963478</v>
       </c>
       <c r="R40" t="n">
-        <v>7043423.143536596</v>
+        <v>7043407.667238996</v>
       </c>
       <c r="S40" t="n">
         <v>25</v>
@@ -5150,10 +5149,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111266420</v>
+        <v>111268460</v>
       </c>
       <c r="B41" t="n">
-        <v>73696</v>
+        <v>89686</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5166,21 +5165,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6440</v>
+        <v>658</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5191,10 +5190,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>591722.3379231346</v>
+        <v>591472.6953434804</v>
       </c>
       <c r="R41" t="n">
-        <v>7043409.880360964</v>
+        <v>7043317.372138057</v>
       </c>
       <c r="S41" t="n">
         <v>25</v>
@@ -5263,10 +5262,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111315146</v>
+        <v>111266420</v>
       </c>
       <c r="B42" t="n">
-        <v>77515</v>
+        <v>73696</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5279,34 +5278,35 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>591616.7319226691</v>
+        <v>591722.3379231346</v>
       </c>
       <c r="R42" t="n">
-        <v>7043364.400079632</v>
+        <v>7043409.880360964</v>
       </c>
       <c r="S42" t="n">
         <v>25</v>
@@ -5375,10 +5375,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111315141</v>
+        <v>111315146</v>
       </c>
       <c r="B43" t="n">
-        <v>96348</v>
+        <v>77515</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5387,42 +5387,38 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>591486.5005135566</v>
+        <v>591616.7319226691</v>
       </c>
       <c r="R43" t="n">
-        <v>7043319.555657836</v>
+        <v>7043364.400079632</v>
       </c>
       <c r="S43" t="n">
         <v>25</v>
@@ -5491,10 +5487,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111315149</v>
+        <v>111267164</v>
       </c>
       <c r="B44" t="n">
-        <v>89686</v>
+        <v>89590</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5503,38 +5499,39 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>658</v>
+        <v>48</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Romell) Singer</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>591670.9593730925</v>
+        <v>591635.2558426465</v>
       </c>
       <c r="R44" t="n">
-        <v>7043423.143536596</v>
+        <v>7043404.693209249</v>
       </c>
       <c r="S44" t="n">
         <v>25</v>
@@ -5603,10 +5600,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111315142</v>
+        <v>111268512</v>
       </c>
       <c r="B45" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5619,34 +5616,40 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P45" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>591469.6177441666</v>
+        <v>591472.6953434804</v>
       </c>
       <c r="R45" t="n">
-        <v>7043315.49674286</v>
+        <v>7043317.372138057</v>
       </c>
       <c r="S45" t="n">
         <v>25</v>
@@ -5715,10 +5718,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111315145</v>
+        <v>111315143</v>
       </c>
       <c r="B46" t="n">
-        <v>89845</v>
+        <v>89686</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5727,25 +5730,25 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>1209</v>
+        <v>658</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5755,10 +5758,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>591478.5830416525</v>
+        <v>591477.5224061215</v>
       </c>
       <c r="R46" t="n">
-        <v>7043314.860723522</v>
+        <v>7043320.638036993</v>
       </c>
       <c r="S46" t="n">
         <v>25</v>
@@ -5827,10 +5830,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111315148</v>
+        <v>111315139</v>
       </c>
       <c r="B47" t="n">
-        <v>89686</v>
+        <v>96348</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5839,38 +5842,42 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P47" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>591645.4590963478</v>
+        <v>591510.9235177813</v>
       </c>
       <c r="R47" t="n">
-        <v>7043407.667238996</v>
+        <v>7043279.155835367</v>
       </c>
       <c r="S47" t="n">
         <v>25</v>
@@ -5913,6 +5920,11 @@
       <c r="AB47" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC47" t="inlineStr">
+        <is>
+          <t>Plus massor av bladrosetter</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5939,10 +5951,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111268460</v>
+        <v>111315141</v>
       </c>
       <c r="B48" t="n">
-        <v>89686</v>
+        <v>96348</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5951,39 +5963,42 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="P48" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>591472.6953434804</v>
+        <v>591486.5005135566</v>
       </c>
       <c r="R48" t="n">
-        <v>7043317.372138057</v>
+        <v>7043319.555657836</v>
       </c>
       <c r="S48" t="n">
         <v>25</v>
@@ -6052,10 +6067,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111268512</v>
+        <v>111315151</v>
       </c>
       <c r="B49" t="n">
-        <v>56398</v>
+        <v>89590</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6064,44 +6079,38 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>100109</v>
+        <v>48</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Romell) Singer</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P49" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>591472.6953434804</v>
+        <v>591670.9593730925</v>
       </c>
       <c r="R49" t="n">
-        <v>7043317.372138057</v>
+        <v>7043423.143536596</v>
       </c>
       <c r="S49" t="n">
         <v>25</v>
@@ -6170,10 +6179,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111315143</v>
+        <v>111315147</v>
       </c>
       <c r="B50" t="n">
-        <v>89686</v>
+        <v>73696</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6186,21 +6195,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>658</v>
+        <v>6440</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6210,10 +6219,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>591477.5224061215</v>
+        <v>591620.5314988887</v>
       </c>
       <c r="R50" t="n">
-        <v>7043320.638036993</v>
+        <v>7043403.376114395</v>
       </c>
       <c r="S50" t="n">
         <v>25</v>
@@ -6282,10 +6291,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111315147</v>
+        <v>111266309</v>
       </c>
       <c r="B51" t="n">
-        <v>73696</v>
+        <v>77515</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6298,34 +6307,35 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>591620.5314988887</v>
+        <v>591747.0822552936</v>
       </c>
       <c r="R51" t="n">
-        <v>7043403.376114395</v>
+        <v>7043436.057239689</v>
       </c>
       <c r="S51" t="n">
         <v>25</v>
@@ -6394,10 +6404,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111267164</v>
+        <v>111315150</v>
       </c>
       <c r="B52" t="n">
-        <v>89590</v>
+        <v>89369</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6406,39 +6416,38 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>48</v>
+        <v>5447</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Romell) Singer</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>591635.2558426465</v>
+        <v>591671.190636521</v>
       </c>
       <c r="R52" t="n">
-        <v>7043404.693209249</v>
+        <v>7043415.108879722</v>
       </c>
       <c r="S52" t="n">
         <v>25</v>
@@ -6507,10 +6516,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111315139</v>
+        <v>111315142</v>
       </c>
       <c r="B53" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6519,42 +6528,38 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>591510.9235177813</v>
+        <v>591469.6177441666</v>
       </c>
       <c r="R53" t="n">
-        <v>7043279.155835367</v>
+        <v>7043315.49674286</v>
       </c>
       <c r="S53" t="n">
         <v>25</v>
@@ -6597,11 +6602,6 @@
       <c r="AB53" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC53" t="inlineStr">
-        <is>
-          <t>Plus massor av bladrosetter</t>
         </is>
       </c>
       <c r="AD53" t="b">

--- a/artfynd/A 32199-2023.xlsx
+++ b/artfynd/A 32199-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>104622551</v>
+        <v>111273656</v>
       </c>
       <c r="B2" t="n">
-        <v>89410</v>
+        <v>73696</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,38 +696,37 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5432</v>
+        <v>6440</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Sollefteå, Ång</t>
+          <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>591264.8652523692</v>
+        <v>591725.0424782543</v>
       </c>
       <c r="R2" t="n">
-        <v>7043217.144234532</v>
+        <v>7043424.7006835</v>
       </c>
       <c r="S2" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -751,22 +750,22 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2022-11-13</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>08:45</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2022-11-13</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>08:45</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -781,22 +780,22 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>104622518</v>
+        <v>111273663</v>
       </c>
       <c r="B3" t="n">
-        <v>89392</v>
+        <v>89686</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,38 +808,37 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Sollefteå, Ång</t>
+          <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>591225.9893459696</v>
+        <v>591652.4436271309</v>
       </c>
       <c r="R3" t="n">
-        <v>7043215.583779484</v>
+        <v>7043413.675855185</v>
       </c>
       <c r="S3" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -864,22 +862,22 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2022-11-13</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>08:45</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2022-11-13</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>08:45</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -894,22 +892,22 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>104622823</v>
+        <v>111273672</v>
       </c>
       <c r="B4" t="n">
-        <v>89392</v>
+        <v>77515</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -922,38 +920,37 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Sollefteå, Ång</t>
+          <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>591305.7109081034</v>
+        <v>591719.3732997013</v>
       </c>
       <c r="R4" t="n">
-        <v>7043165.596235943</v>
+        <v>7043419.6232786</v>
       </c>
       <c r="S4" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -977,22 +974,22 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2022-11-13</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>08:45</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2022-11-13</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>08:45</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1007,22 +1004,22 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>104681051</v>
+        <v>111273664</v>
       </c>
       <c r="B5" t="n">
-        <v>96334</v>
+        <v>89590</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1035,45 +1032,37 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>220787</v>
+        <v>48</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
+          <t>(Romell) Singer</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>591251.4437989765</v>
+        <v>591673.2841504611</v>
       </c>
       <c r="R5" t="n">
-        <v>7043185.932821126</v>
+        <v>7043420.083276978</v>
       </c>
       <c r="S5" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1097,7 +1086,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1107,7 +1096,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1121,29 +1110,28 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Steve Daurer</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Steve Daurer</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>104681045</v>
+        <v>111315149</v>
       </c>
       <c r="B6" t="n">
-        <v>96334</v>
+        <v>89686</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1152,46 +1140,38 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>591249.3105024131</v>
+        <v>591670.9593730925</v>
       </c>
       <c r="R6" t="n">
-        <v>7043197.93442897</v>
+        <v>7043423.143536596</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1218,7 +1198,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1228,7 +1208,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1242,29 +1222,28 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Steve Daurer</t>
+          <t>Johan Råghall</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Steve Daurer</t>
+          <t>Johan Råghall, Lina Hällström</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>104681082</v>
+        <v>111266420</v>
       </c>
       <c r="B7" t="n">
-        <v>56540</v>
+        <v>73696</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1277,42 +1256,35 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>103021</v>
+        <v>6440</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>(Eitner) Zahlbr.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>591298.2133711505</v>
+        <v>591722.3379231346</v>
       </c>
       <c r="R7" t="n">
-        <v>7043177.444135577</v>
+        <v>7043409.880360964</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1339,7 +1311,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1349,7 +1321,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1369,22 +1341,22 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Steve Daurer</t>
+          <t>Johan Råghall</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Steve Daurer</t>
+          <t>Johan Råghall, Lina Hällström</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>104681048</v>
+        <v>111315151</v>
       </c>
       <c r="B8" t="n">
-        <v>89392</v>
+        <v>89590</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1393,41 +1365,38 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1202</v>
+        <v>48</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Romell) Singer</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>591249.3105024131</v>
+        <v>591670.9593730925</v>
       </c>
       <c r="R8" t="n">
-        <v>7043197.93442897</v>
+        <v>7043423.143536596</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1454,7 +1423,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1464,7 +1433,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1478,29 +1447,28 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
-      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Steve Daurer</t>
+          <t>Johan Råghall</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Steve Daurer</t>
+          <t>Johan Råghall, Lina Hällström</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>104681075</v>
+        <v>111266309</v>
       </c>
       <c r="B9" t="n">
-        <v>89577</v>
+        <v>77515</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1509,41 +1477,39 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>48</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Romell) Singer</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>591279.0299158915</v>
+        <v>591747.0822552936</v>
       </c>
       <c r="R9" t="n">
-        <v>7043191.190934213</v>
+        <v>7043436.057239689</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1570,7 +1536,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1580,7 +1546,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1594,29 +1560,28 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Steve Daurer</t>
+          <t>Johan Råghall</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Steve Daurer</t>
+          <t>Johan Råghall, Lina Hällström</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>104681053</v>
+        <v>111315150</v>
       </c>
       <c r="B10" t="n">
-        <v>89392</v>
+        <v>89369</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1625,41 +1590,38 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>591251.4437989765</v>
+        <v>591671.190636521</v>
       </c>
       <c r="R10" t="n">
-        <v>7043185.932821126</v>
+        <v>7043415.108879722</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1686,7 +1648,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1696,7 +1658,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1710,29 +1672,28 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Steve Daurer</t>
+          <t>Johan Råghall</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Steve Daurer</t>
+          <t>Johan Råghall, Lina Hällström</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>104681080</v>
+        <v>111273661</v>
       </c>
       <c r="B11" t="n">
-        <v>89673</v>
+        <v>89686</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1763,22 +1724,19 @@
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>591298.2133711505</v>
+        <v>591636.9769660851</v>
       </c>
       <c r="R11" t="n">
-        <v>7043177.444135577</v>
+        <v>7043422.612332962</v>
       </c>
       <c r="S11" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1802,7 +1760,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1812,7 +1770,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -1826,29 +1784,28 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
-      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Steve Daurer</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Steve Daurer</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>104681033</v>
+        <v>111273670</v>
       </c>
       <c r="B12" t="n">
-        <v>96334</v>
+        <v>77515</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1857,49 +1814,41 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>591211.9666893056</v>
+        <v>591622.4606337334</v>
       </c>
       <c r="R12" t="n">
-        <v>7043205.353362232</v>
+        <v>7043398.517451782</v>
       </c>
       <c r="S12" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1923,7 +1872,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -1933,7 +1882,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -1947,29 +1896,28 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
-      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Steve Daurer</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Steve Daurer</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>104681041</v>
+        <v>111273655</v>
       </c>
       <c r="B13" t="n">
-        <v>89392</v>
+        <v>73696</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1982,40 +1930,37 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1202</v>
+        <v>6440</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>591211.9666893056</v>
+        <v>591622.4606337334</v>
       </c>
       <c r="R13" t="n">
-        <v>7043205.353362232</v>
+        <v>7043398.517451782</v>
       </c>
       <c r="S13" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2039,7 +1984,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2049,7 +1994,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2063,29 +2008,28 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
-      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Steve Daurer</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Steve Daurer</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>104622738</v>
+        <v>111273660</v>
       </c>
       <c r="B14" t="n">
-        <v>78569</v>
+        <v>89845</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2094,42 +2038,41 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6458</v>
+        <v>1209</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Sollefteå, Ång</t>
+          <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>591370.1294540192</v>
+        <v>591641.1794901572</v>
       </c>
       <c r="R14" t="n">
-        <v>7043181.293393185</v>
+        <v>7043416.478903031</v>
       </c>
       <c r="S14" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2153,22 +2096,22 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2022-11-13</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>08:45</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2022-11-13</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>08:45</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2183,22 +2126,22 @@
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>104622636</v>
+        <v>111273669</v>
       </c>
       <c r="B15" t="n">
-        <v>89392</v>
+        <v>77515</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2211,38 +2154,37 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Sollefteå, Ång</t>
+          <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>591343.9067822314</v>
+        <v>591616.806528918</v>
       </c>
       <c r="R15" t="n">
-        <v>7043222.090614219</v>
+        <v>7043377.357856153</v>
       </c>
       <c r="S15" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2266,22 +2208,22 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2022-11-13</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>08:45</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2022-11-13</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>08:45</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2296,22 +2238,22 @@
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>104622742</v>
+        <v>111273667</v>
       </c>
       <c r="B16" t="n">
-        <v>78569</v>
+        <v>89423</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2324,38 +2266,37 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Sollefteå, Ång</t>
+          <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>591361.4199005438</v>
+        <v>591618.866522243</v>
       </c>
       <c r="R16" t="n">
-        <v>7043173.001690743</v>
+        <v>7043352.399297187</v>
       </c>
       <c r="S16" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2379,22 +2320,22 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2022-11-13</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>08:45</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2022-11-13</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>08:45</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2409,22 +2350,22 @@
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>104622760</v>
+        <v>111315148</v>
       </c>
       <c r="B17" t="n">
-        <v>89673</v>
+        <v>89686</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2455,17 +2396,16 @@
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Sollefteå, Ång</t>
+          <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>591328.3800968044</v>
+        <v>591645.4590963478</v>
       </c>
       <c r="R17" t="n">
-        <v>7043170.713859768</v>
+        <v>7043407.667238996</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2492,22 +2432,22 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2022-11-13</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>08:45</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2022-11-13</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>08:45</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2522,22 +2462,22 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Johan Råghall</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Johan Råghall, Lina Hällström</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>104622646</v>
+        <v>111315146</v>
       </c>
       <c r="B18" t="n">
-        <v>78569</v>
+        <v>77515</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2550,35 +2490,34 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Sollefteå, Ång</t>
+          <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>591380.186519376</v>
+        <v>591616.7319226691</v>
       </c>
       <c r="R18" t="n">
-        <v>7043267.360629026</v>
+        <v>7043364.400079632</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2605,22 +2544,22 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2022-11-13</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>08:45</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2022-11-13</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>08:45</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2635,22 +2574,22 @@
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Johan Råghall</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Johan Råghall, Lina Hällström</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>104681092</v>
+        <v>111267164</v>
       </c>
       <c r="B19" t="n">
-        <v>89673</v>
+        <v>89590</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2659,41 +2598,39 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>658</v>
+        <v>48</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Romell) Singer</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>591311.6115370012</v>
+        <v>591635.2558426465</v>
       </c>
       <c r="R19" t="n">
-        <v>7043162.637983168</v>
+        <v>7043404.693209249</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2720,7 +2657,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -2730,7 +2667,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
@@ -2744,29 +2681,28 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
-      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Steve Daurer</t>
+          <t>Johan Råghall</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Steve Daurer</t>
+          <t>Johan Råghall, Lina Hällström</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>104681102</v>
+        <v>111315147</v>
       </c>
       <c r="B20" t="n">
-        <v>55608</v>
+        <v>73696</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2779,38 +2715,34 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>102612</v>
+        <v>6440</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Järpe</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Tetrastes bonasia</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>591320.6412087205</v>
+        <v>591620.5314988887</v>
       </c>
       <c r="R20" t="n">
-        <v>7043159.769446937</v>
+        <v>7043403.376114395</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2837,7 +2769,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -2847,7 +2779,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
@@ -2867,22 +2799,22 @@
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Steve Daurer</t>
+          <t>Johan Råghall</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Steve Daurer</t>
+          <t>Johan Råghall, Lina Hällström</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>104681090</v>
+        <v>104622551</v>
       </c>
       <c r="B21" t="n">
-        <v>96334</v>
+        <v>89410</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2891,46 +2823,39 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>220787</v>
+        <v>5432</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr"/>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Getstugeberget, Ång</t>
+          <t>Sollefteå, Ång</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>591311.6115370012</v>
+        <v>591264.8652523692</v>
       </c>
       <c r="R21" t="n">
-        <v>7043162.637983168</v>
+        <v>7043217.144234532</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -2957,22 +2882,22 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2022-11-13</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>08:45</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2022-11-13</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>08:45</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2981,29 +2906,28 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
-      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Steve Daurer</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Steve Daurer</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>104681096</v>
+        <v>104622518</v>
       </c>
       <c r="B22" t="n">
-        <v>96334</v>
+        <v>89392</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3012,46 +2936,39 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr"/>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Getstugeberget, Ång</t>
+          <t>Sollefteå, Ång</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>591327.3964939628</v>
+        <v>591225.9893459696</v>
       </c>
       <c r="R22" t="n">
-        <v>7043173.813054159</v>
+        <v>7043215.583779484</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3078,22 +2995,22 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2022-11-13</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>08:45</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2022-11-13</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>08:45</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3102,29 +3019,28 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
-      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Steve Daurer</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Steve Daurer</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>104681103</v>
+        <v>104622823</v>
       </c>
       <c r="B23" t="n">
-        <v>89673</v>
+        <v>89392</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3137,37 +3053,35 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Getstugeberget, Ång</t>
+          <t>Sollefteå, Ång</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>591320.6412087205</v>
+        <v>591305.7109081034</v>
       </c>
       <c r="R23" t="n">
-        <v>7043159.769446937</v>
+        <v>7043165.596235943</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3194,22 +3108,22 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2022-11-13</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>08:45</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2022-11-13</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>08:45</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3218,29 +3132,28 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
-      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Steve Daurer</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Steve Daurer</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>104681101</v>
+        <v>104681051</v>
       </c>
       <c r="B24" t="n">
-        <v>89577</v>
+        <v>96334</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3253,26 +3166,31 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>48</v>
+        <v>220787</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Romell) Singer</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
@@ -3280,10 +3198,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>591320.6412087205</v>
+        <v>591251.4437989765</v>
       </c>
       <c r="R24" t="n">
-        <v>7043159.769446937</v>
+        <v>7043185.932821126</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3353,10 +3271,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>104681097</v>
+        <v>104681045</v>
       </c>
       <c r="B25" t="n">
-        <v>89673</v>
+        <v>96334</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3365,30 +3283,35 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
@@ -3396,10 +3319,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>591327.3964939628</v>
+        <v>591249.3105024131</v>
       </c>
       <c r="R25" t="n">
-        <v>7043173.813054159</v>
+        <v>7043197.93442897</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3469,10 +3392,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111273661</v>
+        <v>104681082</v>
       </c>
       <c r="B26" t="n">
-        <v>89686</v>
+        <v>56540</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3485,37 +3408,45 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>658</v>
+        <v>103021</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>591636.9769660851</v>
+        <v>591298.2133711505</v>
       </c>
       <c r="R26" t="n">
-        <v>7043422.612332962</v>
+        <v>7043177.444135577</v>
       </c>
       <c r="S26" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3539,7 +3470,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
@@ -3549,7 +3480,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
@@ -3569,22 +3500,22 @@
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Steve Daurer</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Steve Daurer</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111273656</v>
+        <v>104681048</v>
       </c>
       <c r="B27" t="n">
-        <v>73696</v>
+        <v>89392</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3597,37 +3528,40 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6440</v>
+        <v>1202</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>591725.0424782543</v>
+        <v>591249.3105024131</v>
       </c>
       <c r="R27" t="n">
-        <v>7043424.7006835</v>
+        <v>7043197.93442897</v>
       </c>
       <c r="S27" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3651,7 +3585,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
@@ -3661,7 +3595,7 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
@@ -3675,28 +3609,29 @@
       <c r="AE27" t="b">
         <v>0</v>
       </c>
+      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
       </c>
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Steve Daurer</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Steve Daurer</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111273663</v>
+        <v>104681075</v>
       </c>
       <c r="B28" t="n">
-        <v>89686</v>
+        <v>89577</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3705,41 +3640,44 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>658</v>
+        <v>48</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Romell) Singer</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>591652.4436271309</v>
+        <v>591279.0299158915</v>
       </c>
       <c r="R28" t="n">
-        <v>7043413.675855185</v>
+        <v>7043191.190934213</v>
       </c>
       <c r="S28" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3763,7 +3701,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
@@ -3773,7 +3711,7 @@
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
@@ -3787,28 +3725,29 @@
       <c r="AE28" t="b">
         <v>0</v>
       </c>
+      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
       </c>
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Steve Daurer</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Steve Daurer</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111273670</v>
+        <v>104681053</v>
       </c>
       <c r="B29" t="n">
-        <v>77515</v>
+        <v>89392</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3821,37 +3760,40 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>591622.4606337334</v>
+        <v>591251.4437989765</v>
       </c>
       <c r="R29" t="n">
-        <v>7043398.517451782</v>
+        <v>7043185.932821126</v>
       </c>
       <c r="S29" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -3875,7 +3817,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
@@ -3885,7 +3827,7 @@
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
@@ -3899,28 +3841,29 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
+      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Steve Daurer</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Steve Daurer</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111273659</v>
+        <v>104681080</v>
       </c>
       <c r="B30" t="n">
-        <v>89845</v>
+        <v>89673</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3929,41 +3872,44 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1209</v>
+        <v>658</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>591495.2093399345</v>
+        <v>591298.2133711505</v>
       </c>
       <c r="R30" t="n">
-        <v>7043327.847347787</v>
+        <v>7043177.444135577</v>
       </c>
       <c r="S30" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -3987,7 +3933,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
@@ -3997,7 +3943,7 @@
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
@@ -4011,28 +3957,29 @@
       <c r="AE30" t="b">
         <v>0</v>
       </c>
+      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
       </c>
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Steve Daurer</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Steve Daurer</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111273666</v>
+        <v>104681033</v>
       </c>
       <c r="B31" t="n">
-        <v>96348</v>
+        <v>96334</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4062,20 +4009,28 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>591499.5271172373</v>
+        <v>591211.9666893056</v>
       </c>
       <c r="R31" t="n">
-        <v>7043317.696102448</v>
+        <v>7043205.353362232</v>
       </c>
       <c r="S31" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -4099,7 +4054,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
@@ -4109,7 +4064,7 @@
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
@@ -4123,28 +4078,29 @@
       <c r="AE31" t="b">
         <v>0</v>
       </c>
+      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
       </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Steve Daurer</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Steve Daurer</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111273655</v>
+        <v>104681041</v>
       </c>
       <c r="B32" t="n">
-        <v>73696</v>
+        <v>89392</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4157,37 +4113,40 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6440</v>
+        <v>1202</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>591622.4606337334</v>
+        <v>591211.9666893056</v>
       </c>
       <c r="R32" t="n">
-        <v>7043398.517451782</v>
+        <v>7043205.353362232</v>
       </c>
       <c r="S32" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4211,7 +4170,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
@@ -4221,7 +4180,7 @@
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
@@ -4235,28 +4194,29 @@
       <c r="AE32" t="b">
         <v>0</v>
       </c>
+      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
       </c>
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Steve Daurer</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Steve Daurer</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111273672</v>
+        <v>104622738</v>
       </c>
       <c r="B33" t="n">
-        <v>77515</v>
+        <v>78569</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4269,37 +4229,38 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Getstugeberget, Ång</t>
+          <t>Sollefteå, Ång</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>591719.3732997013</v>
+        <v>591370.1294540192</v>
       </c>
       <c r="R33" t="n">
-        <v>7043419.6232786</v>
+        <v>7043181.293393185</v>
       </c>
       <c r="S33" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -4323,22 +4284,22 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2022-11-13</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>08:45</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2022-11-13</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>08:45</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4353,22 +4314,22 @@
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111273660</v>
+        <v>104622636</v>
       </c>
       <c r="B34" t="n">
-        <v>89845</v>
+        <v>89392</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4377,41 +4338,42 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Getstugeberget, Ång</t>
+          <t>Sollefteå, Ång</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>591641.1794901572</v>
+        <v>591343.9067822314</v>
       </c>
       <c r="R34" t="n">
-        <v>7043416.478903031</v>
+        <v>7043222.090614219</v>
       </c>
       <c r="S34" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -4435,22 +4397,22 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2022-11-13</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>08:45</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2022-11-13</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>08:45</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4465,22 +4427,22 @@
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111273669</v>
+        <v>104622742</v>
       </c>
       <c r="B35" t="n">
-        <v>77515</v>
+        <v>78569</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4493,37 +4455,38 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Getstugeberget, Ång</t>
+          <t>Sollefteå, Ång</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>591616.806528918</v>
+        <v>591361.4199005438</v>
       </c>
       <c r="R35" t="n">
-        <v>7043377.357856153</v>
+        <v>7043173.001690743</v>
       </c>
       <c r="S35" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4547,22 +4510,22 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2022-11-13</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>08:45</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2022-11-13</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>08:45</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4577,22 +4540,22 @@
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111273667</v>
+        <v>104622760</v>
       </c>
       <c r="B36" t="n">
-        <v>89423</v>
+        <v>89673</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4605,37 +4568,38 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>5432</v>
+        <v>658</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Getstugeberget, Ång</t>
+          <t>Sollefteå, Ång</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>591618.866522243</v>
+        <v>591328.3800968044</v>
       </c>
       <c r="R36" t="n">
-        <v>7043352.399297187</v>
+        <v>7043170.713859768</v>
       </c>
       <c r="S36" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4659,22 +4623,22 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2022-11-13</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>08:45</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2022-11-13</t>
         </is>
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>08:45</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4689,22 +4653,22 @@
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111273664</v>
+        <v>104622646</v>
       </c>
       <c r="B37" t="n">
-        <v>89590</v>
+        <v>78569</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4713,41 +4677,42 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>48</v>
+        <v>6458</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Romell) Singer</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Getstugeberget, Ång</t>
+          <t>Sollefteå, Ång</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>591673.2841504611</v>
+        <v>591380.186519376</v>
       </c>
       <c r="R37" t="n">
-        <v>7043420.083276978</v>
+        <v>7043267.360629026</v>
       </c>
       <c r="S37" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -4771,22 +4736,22 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2022-11-13</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>08:45</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2022-11-13</t>
         </is>
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>08:45</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4801,22 +4766,22 @@
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111315145</v>
+        <v>104681092</v>
       </c>
       <c r="B38" t="n">
-        <v>89845</v>
+        <v>89673</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4825,38 +4790,41 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1209</v>
+        <v>658</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>591478.5830416525</v>
+        <v>591311.6115370012</v>
       </c>
       <c r="R38" t="n">
-        <v>7043314.860723522</v>
+        <v>7043162.637983168</v>
       </c>
       <c r="S38" t="n">
         <v>25</v>
@@ -4883,7 +4851,7 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
@@ -4893,7 +4861,7 @@
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="AB38" t="inlineStr">
@@ -4907,28 +4875,29 @@
       <c r="AE38" t="b">
         <v>0</v>
       </c>
+      <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="b">
         <v>0</v>
       </c>
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Johan Råghall</t>
+          <t>Steve Daurer</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Johan Råghall, Lina Hällström</t>
+          <t>Steve Daurer</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111315149</v>
+        <v>104681102</v>
       </c>
       <c r="B39" t="n">
-        <v>89686</v>
+        <v>55608</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4941,34 +4910,38 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>658</v>
+        <v>102612</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Järpe</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Tetrastes bonasia</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>591670.9593730925</v>
+        <v>591320.6412087205</v>
       </c>
       <c r="R39" t="n">
-        <v>7043423.143536596</v>
+        <v>7043159.769446937</v>
       </c>
       <c r="S39" t="n">
         <v>25</v>
@@ -4995,7 +4968,7 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
@@ -5005,7 +4978,7 @@
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="AB39" t="inlineStr">
@@ -5025,22 +4998,22 @@
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Johan Råghall</t>
+          <t>Steve Daurer</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Johan Råghall, Lina Hällström</t>
+          <t>Steve Daurer</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111315148</v>
+        <v>104681090</v>
       </c>
       <c r="B40" t="n">
-        <v>89686</v>
+        <v>96334</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5049,38 +5022,46 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>591645.4590963478</v>
+        <v>591311.6115370012</v>
       </c>
       <c r="R40" t="n">
-        <v>7043407.667238996</v>
+        <v>7043162.637983168</v>
       </c>
       <c r="S40" t="n">
         <v>25</v>
@@ -5107,7 +5088,7 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
@@ -5117,7 +5098,7 @@
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="AB40" t="inlineStr">
@@ -5131,28 +5112,29 @@
       <c r="AE40" t="b">
         <v>0</v>
       </c>
+      <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="b">
         <v>0</v>
       </c>
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
         <is>
-          <t>Johan Råghall</t>
+          <t>Steve Daurer</t>
         </is>
       </c>
       <c r="AX40" t="inlineStr">
         <is>
-          <t>Johan Råghall, Lina Hällström</t>
+          <t>Steve Daurer</t>
         </is>
       </c>
       <c r="AY40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111268460</v>
+        <v>104681096</v>
       </c>
       <c r="B41" t="n">
-        <v>89686</v>
+        <v>96334</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5161,39 +5143,46 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>591472.6953434804</v>
+        <v>591327.3964939628</v>
       </c>
       <c r="R41" t="n">
-        <v>7043317.372138057</v>
+        <v>7043173.813054159</v>
       </c>
       <c r="S41" t="n">
         <v>25</v>
@@ -5220,7 +5209,7 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
@@ -5230,7 +5219,7 @@
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="AB41" t="inlineStr">
@@ -5244,28 +5233,29 @@
       <c r="AE41" t="b">
         <v>0</v>
       </c>
+      <c r="AF41" t="inlineStr"/>
       <c r="AG41" t="b">
         <v>0</v>
       </c>
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
         <is>
-          <t>Johan Råghall</t>
+          <t>Steve Daurer</t>
         </is>
       </c>
       <c r="AX41" t="inlineStr">
         <is>
-          <t>Johan Råghall, Lina Hällström</t>
+          <t>Steve Daurer</t>
         </is>
       </c>
       <c r="AY41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111266420</v>
+        <v>104681103</v>
       </c>
       <c r="B42" t="n">
-        <v>73696</v>
+        <v>89673</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5278,35 +5268,37 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6440</v>
+        <v>658</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>591722.3379231346</v>
+        <v>591320.6412087205</v>
       </c>
       <c r="R42" t="n">
-        <v>7043409.880360964</v>
+        <v>7043159.769446937</v>
       </c>
       <c r="S42" t="n">
         <v>25</v>
@@ -5333,7 +5325,7 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
@@ -5343,7 +5335,7 @@
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="AB42" t="inlineStr">
@@ -5357,28 +5349,29 @@
       <c r="AE42" t="b">
         <v>0</v>
       </c>
+      <c r="AF42" t="inlineStr"/>
       <c r="AG42" t="b">
         <v>0</v>
       </c>
       <c r="AT42" t="inlineStr"/>
       <c r="AW42" t="inlineStr">
         <is>
-          <t>Johan Råghall</t>
+          <t>Steve Daurer</t>
         </is>
       </c>
       <c r="AX42" t="inlineStr">
         <is>
-          <t>Johan Råghall, Lina Hällström</t>
+          <t>Steve Daurer</t>
         </is>
       </c>
       <c r="AY42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111315146</v>
+        <v>104681101</v>
       </c>
       <c r="B43" t="n">
-        <v>77515</v>
+        <v>89577</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5387,38 +5380,41 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6425</v>
+        <v>48</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Romell) Singer</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>591616.7319226691</v>
+        <v>591320.6412087205</v>
       </c>
       <c r="R43" t="n">
-        <v>7043364.400079632</v>
+        <v>7043159.769446937</v>
       </c>
       <c r="S43" t="n">
         <v>25</v>
@@ -5445,7 +5441,7 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
@@ -5455,7 +5451,7 @@
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="AB43" t="inlineStr">
@@ -5469,28 +5465,29 @@
       <c r="AE43" t="b">
         <v>0</v>
       </c>
+      <c r="AF43" t="inlineStr"/>
       <c r="AG43" t="b">
         <v>0</v>
       </c>
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
         <is>
-          <t>Johan Råghall</t>
+          <t>Steve Daurer</t>
         </is>
       </c>
       <c r="AX43" t="inlineStr">
         <is>
-          <t>Johan Råghall, Lina Hällström</t>
+          <t>Steve Daurer</t>
         </is>
       </c>
       <c r="AY43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111267164</v>
+        <v>104681097</v>
       </c>
       <c r="B44" t="n">
-        <v>89590</v>
+        <v>89673</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5499,39 +5496,41 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>48</v>
+        <v>658</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Romell) Singer</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>591635.2558426465</v>
+        <v>591327.3964939628</v>
       </c>
       <c r="R44" t="n">
-        <v>7043404.693209249</v>
+        <v>7043173.813054159</v>
       </c>
       <c r="S44" t="n">
         <v>25</v>
@@ -5558,7 +5557,7 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
@@ -5568,7 +5567,7 @@
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="AB44" t="inlineStr">
@@ -5582,28 +5581,29 @@
       <c r="AE44" t="b">
         <v>0</v>
       </c>
+      <c r="AF44" t="inlineStr"/>
       <c r="AG44" t="b">
         <v>0</v>
       </c>
       <c r="AT44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
         <is>
-          <t>Johan Råghall</t>
+          <t>Steve Daurer</t>
         </is>
       </c>
       <c r="AX44" t="inlineStr">
         <is>
-          <t>Johan Råghall, Lina Hällström</t>
+          <t>Steve Daurer</t>
         </is>
       </c>
       <c r="AY44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111268512</v>
+        <v>111273659</v>
       </c>
       <c r="B45" t="n">
-        <v>56398</v>
+        <v>89845</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5612,47 +5612,41 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>100109</v>
+        <v>1209</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P45" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>591472.6953434804</v>
+        <v>591495.2093399345</v>
       </c>
       <c r="R45" t="n">
-        <v>7043317.372138057</v>
+        <v>7043327.847347787</v>
       </c>
       <c r="S45" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -5706,22 +5700,22 @@
       <c r="AT45" t="inlineStr"/>
       <c r="AW45" t="inlineStr">
         <is>
-          <t>Johan Råghall</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AX45" t="inlineStr">
         <is>
-          <t>Johan Råghall, Lina Hällström</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AY45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111315143</v>
+        <v>111273666</v>
       </c>
       <c r="B46" t="n">
-        <v>89686</v>
+        <v>96348</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5730,25 +5724,25 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5758,13 +5752,13 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>591477.5224061215</v>
+        <v>591499.5271172373</v>
       </c>
       <c r="R46" t="n">
-        <v>7043320.638036993</v>
+        <v>7043317.696102448</v>
       </c>
       <c r="S46" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -5818,22 +5812,22 @@
       <c r="AT46" t="inlineStr"/>
       <c r="AW46" t="inlineStr">
         <is>
-          <t>Johan Råghall</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AX46" t="inlineStr">
         <is>
-          <t>Johan Råghall, Lina Hällström</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AY46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111315139</v>
+        <v>111315145</v>
       </c>
       <c r="B47" t="n">
-        <v>96348</v>
+        <v>89845</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5846,38 +5840,34 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>220787</v>
+        <v>1209</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>P.Karst.</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>591510.9235177813</v>
+        <v>591478.5830416525</v>
       </c>
       <c r="R47" t="n">
-        <v>7043279.155835367</v>
+        <v>7043314.860723522</v>
       </c>
       <c r="S47" t="n">
         <v>25</v>
@@ -5920,11 +5910,6 @@
       <c r="AB47" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC47" t="inlineStr">
-        <is>
-          <t>Plus massor av bladrosetter</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5951,10 +5936,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111315141</v>
+        <v>111268460</v>
       </c>
       <c r="B48" t="n">
-        <v>96348</v>
+        <v>89686</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5963,42 +5948,39 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>591486.5005135566</v>
+        <v>591472.6953434804</v>
       </c>
       <c r="R48" t="n">
-        <v>7043319.555657836</v>
+        <v>7043317.372138057</v>
       </c>
       <c r="S48" t="n">
         <v>25</v>
@@ -6067,10 +6049,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111315151</v>
+        <v>111268512</v>
       </c>
       <c r="B49" t="n">
-        <v>89590</v>
+        <v>56398</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6079,38 +6061,44 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>48</v>
+        <v>100109</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Romell) Singer</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P49" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>591670.9593730925</v>
+        <v>591472.6953434804</v>
       </c>
       <c r="R49" t="n">
-        <v>7043423.143536596</v>
+        <v>7043317.372138057</v>
       </c>
       <c r="S49" t="n">
         <v>25</v>
@@ -6179,10 +6167,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111315147</v>
+        <v>111315143</v>
       </c>
       <c r="B50" t="n">
-        <v>73696</v>
+        <v>89686</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6195,21 +6183,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6440</v>
+        <v>658</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6219,10 +6207,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>591620.5314988887</v>
+        <v>591477.5224061215</v>
       </c>
       <c r="R50" t="n">
-        <v>7043403.376114395</v>
+        <v>7043320.638036993</v>
       </c>
       <c r="S50" t="n">
         <v>25</v>
@@ -6291,10 +6279,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111266309</v>
+        <v>111315139</v>
       </c>
       <c r="B51" t="n">
-        <v>77515</v>
+        <v>96348</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6303,39 +6291,42 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P51" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>591747.0822552936</v>
+        <v>591510.9235177813</v>
       </c>
       <c r="R51" t="n">
-        <v>7043436.057239689</v>
+        <v>7043279.155835367</v>
       </c>
       <c r="S51" t="n">
         <v>25</v>
@@ -6378,6 +6369,11 @@
       <c r="AB51" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC51" t="inlineStr">
+        <is>
+          <t>Plus massor av bladrosetter</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6404,10 +6400,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111315150</v>
+        <v>111315141</v>
       </c>
       <c r="B52" t="n">
-        <v>89369</v>
+        <v>96348</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6416,38 +6412,42 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>5447</v>
+        <v>220787</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="P52" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>591671.190636521</v>
+        <v>591486.5005135566</v>
       </c>
       <c r="R52" t="n">
-        <v>7043415.108879722</v>
+        <v>7043319.555657836</v>
       </c>
       <c r="S52" t="n">
         <v>25</v>

--- a/artfynd/A 32199-2023.xlsx
+++ b/artfynd/A 32199-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111273656</v>
+        <v>104622551</v>
       </c>
       <c r="B2" t="n">
-        <v>73696</v>
+        <v>89410</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,37 +696,38 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6440</v>
+        <v>5432</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Getstugeberget, Ång</t>
+          <t>Sollefteå, Ång</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>591725.0424782543</v>
+        <v>591264.8652523692</v>
       </c>
       <c r="R2" t="n">
-        <v>7043424.7006835</v>
+        <v>7043217.144234532</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -750,22 +751,22 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2022-11-13</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>08:45</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2022-11-13</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>08:45</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -780,22 +781,22 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111273663</v>
+        <v>104622518</v>
       </c>
       <c r="B3" t="n">
-        <v>89686</v>
+        <v>89392</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,37 +809,38 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Getstugeberget, Ång</t>
+          <t>Sollefteå, Ång</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>591652.4436271309</v>
+        <v>591225.9893459696</v>
       </c>
       <c r="R3" t="n">
-        <v>7043413.675855185</v>
+        <v>7043215.583779484</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -862,22 +864,22 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2022-11-13</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>08:45</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2022-11-13</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>08:45</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -892,22 +894,22 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111273672</v>
+        <v>104622823</v>
       </c>
       <c r="B4" t="n">
-        <v>77515</v>
+        <v>89392</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,37 +922,38 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Getstugeberget, Ång</t>
+          <t>Sollefteå, Ång</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>591719.3732997013</v>
+        <v>591305.7109081034</v>
       </c>
       <c r="R4" t="n">
-        <v>7043419.6232786</v>
+        <v>7043165.596235943</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -974,22 +977,22 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2022-11-13</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>08:45</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2022-11-13</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>08:45</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1004,22 +1007,22 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111273664</v>
+        <v>104681051</v>
       </c>
       <c r="B5" t="n">
-        <v>89590</v>
+        <v>96334</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,37 +1035,45 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>48</v>
+        <v>220787</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Romell) Singer</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>591673.2841504611</v>
+        <v>591251.4437989765</v>
       </c>
       <c r="R5" t="n">
-        <v>7043420.083276978</v>
+        <v>7043185.932821126</v>
       </c>
       <c r="S5" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1086,7 +1097,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1096,7 +1107,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1110,28 +1121,29 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Steve Daurer</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Steve Daurer</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111315149</v>
+        <v>104681045</v>
       </c>
       <c r="B6" t="n">
-        <v>89686</v>
+        <v>96334</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1140,38 +1152,46 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>591670.9593730925</v>
+        <v>591249.3105024131</v>
       </c>
       <c r="R6" t="n">
-        <v>7043423.143536596</v>
+        <v>7043197.93442897</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1198,7 +1218,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1208,7 +1228,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1222,28 +1242,29 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Johan Råghall</t>
+          <t>Steve Daurer</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Johan Råghall, Lina Hällström</t>
+          <t>Steve Daurer</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111266420</v>
+        <v>104681082</v>
       </c>
       <c r="B7" t="n">
-        <v>73696</v>
+        <v>56540</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1256,35 +1277,42 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6440</v>
+        <v>103021</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>591722.3379231346</v>
+        <v>591298.2133711505</v>
       </c>
       <c r="R7" t="n">
-        <v>7043409.880360964</v>
+        <v>7043177.444135577</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1311,7 +1339,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1321,7 +1349,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1341,22 +1369,22 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Johan Råghall</t>
+          <t>Steve Daurer</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Johan Råghall, Lina Hällström</t>
+          <t>Steve Daurer</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111315151</v>
+        <v>104681048</v>
       </c>
       <c r="B8" t="n">
-        <v>89590</v>
+        <v>89392</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1365,38 +1393,41 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>48</v>
+        <v>1202</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Romell) Singer</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>591670.9593730925</v>
+        <v>591249.3105024131</v>
       </c>
       <c r="R8" t="n">
-        <v>7043423.143536596</v>
+        <v>7043197.93442897</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1423,7 +1454,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1433,7 +1464,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1447,28 +1478,29 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
+      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Johan Råghall</t>
+          <t>Steve Daurer</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Johan Råghall, Lina Hällström</t>
+          <t>Steve Daurer</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111266309</v>
+        <v>104681075</v>
       </c>
       <c r="B9" t="n">
-        <v>77515</v>
+        <v>89577</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1477,39 +1509,41 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>48</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Romell) Singer</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>591747.0822552936</v>
+        <v>591279.0299158915</v>
       </c>
       <c r="R9" t="n">
-        <v>7043436.057239689</v>
+        <v>7043191.190934213</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1536,7 +1570,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1546,7 +1580,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1560,28 +1594,29 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Johan Råghall</t>
+          <t>Steve Daurer</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Johan Råghall, Lina Hällström</t>
+          <t>Steve Daurer</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111315150</v>
+        <v>104681053</v>
       </c>
       <c r="B10" t="n">
-        <v>89369</v>
+        <v>89392</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1590,38 +1625,41 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5447</v>
+        <v>1202</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>591671.190636521</v>
+        <v>591251.4437989765</v>
       </c>
       <c r="R10" t="n">
-        <v>7043415.108879722</v>
+        <v>7043185.932821126</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1648,7 +1686,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1658,7 +1696,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1672,28 +1710,29 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Johan Råghall</t>
+          <t>Steve Daurer</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Johan Råghall, Lina Hällström</t>
+          <t>Steve Daurer</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111273661</v>
+        <v>104681080</v>
       </c>
       <c r="B11" t="n">
-        <v>89686</v>
+        <v>89673</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1724,19 +1763,22 @@
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>591636.9769660851</v>
+        <v>591298.2133711505</v>
       </c>
       <c r="R11" t="n">
-        <v>7043422.612332962</v>
+        <v>7043177.444135577</v>
       </c>
       <c r="S11" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1760,7 +1802,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1770,7 +1812,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -1784,28 +1826,29 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
+      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Steve Daurer</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Steve Daurer</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111273670</v>
+        <v>104681033</v>
       </c>
       <c r="B12" t="n">
-        <v>77515</v>
+        <v>96334</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1814,41 +1857,49 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>591622.4606337334</v>
+        <v>591211.9666893056</v>
       </c>
       <c r="R12" t="n">
-        <v>7043398.517451782</v>
+        <v>7043205.353362232</v>
       </c>
       <c r="S12" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1872,7 +1923,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -1882,7 +1933,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -1896,28 +1947,29 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
+      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Steve Daurer</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Steve Daurer</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111273655</v>
+        <v>104681041</v>
       </c>
       <c r="B13" t="n">
-        <v>73696</v>
+        <v>89392</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1930,37 +1982,40 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6440</v>
+        <v>1202</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>591622.4606337334</v>
+        <v>591211.9666893056</v>
       </c>
       <c r="R13" t="n">
-        <v>7043398.517451782</v>
+        <v>7043205.353362232</v>
       </c>
       <c r="S13" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -1984,7 +2039,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -1994,7 +2049,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2008,28 +2063,29 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
+      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Steve Daurer</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Steve Daurer</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111273660</v>
+        <v>104622738</v>
       </c>
       <c r="B14" t="n">
-        <v>89845</v>
+        <v>78569</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2038,41 +2094,42 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1209</v>
+        <v>6458</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Getstugeberget, Ång</t>
+          <t>Sollefteå, Ång</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>591641.1794901572</v>
+        <v>591370.1294540192</v>
       </c>
       <c r="R14" t="n">
-        <v>7043416.478903031</v>
+        <v>7043181.293393185</v>
       </c>
       <c r="S14" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2096,22 +2153,22 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2022-11-13</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>08:45</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2022-11-13</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>08:45</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2126,22 +2183,22 @@
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111273669</v>
+        <v>104622636</v>
       </c>
       <c r="B15" t="n">
-        <v>77515</v>
+        <v>89392</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2154,37 +2211,38 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Getstugeberget, Ång</t>
+          <t>Sollefteå, Ång</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>591616.806528918</v>
+        <v>591343.9067822314</v>
       </c>
       <c r="R15" t="n">
-        <v>7043377.357856153</v>
+        <v>7043222.090614219</v>
       </c>
       <c r="S15" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2208,22 +2266,22 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2022-11-13</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>08:45</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2022-11-13</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>08:45</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2238,22 +2296,22 @@
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111273667</v>
+        <v>104622742</v>
       </c>
       <c r="B16" t="n">
-        <v>89423</v>
+        <v>78569</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2266,37 +2324,38 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Getstugeberget, Ång</t>
+          <t>Sollefteå, Ång</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>591618.866522243</v>
+        <v>591361.4199005438</v>
       </c>
       <c r="R16" t="n">
-        <v>7043352.399297187</v>
+        <v>7043173.001690743</v>
       </c>
       <c r="S16" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2320,22 +2379,22 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2022-11-13</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>08:45</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2022-11-13</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>08:45</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2350,22 +2409,22 @@
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111315148</v>
+        <v>104622760</v>
       </c>
       <c r="B17" t="n">
-        <v>89686</v>
+        <v>89673</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2396,16 +2455,17 @@
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Getstugeberget, Ång</t>
+          <t>Sollefteå, Ång</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>591645.4590963478</v>
+        <v>591328.3800968044</v>
       </c>
       <c r="R17" t="n">
-        <v>7043407.667238996</v>
+        <v>7043170.713859768</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2432,22 +2492,22 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2022-11-13</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>08:45</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2022-11-13</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>08:45</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2462,22 +2522,22 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Johan Råghall</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Johan Råghall, Lina Hällström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111315146</v>
+        <v>104622646</v>
       </c>
       <c r="B18" t="n">
-        <v>77515</v>
+        <v>78569</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2490,34 +2550,35 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Getstugeberget, Ång</t>
+          <t>Sollefteå, Ång</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>591616.7319226691</v>
+        <v>591380.186519376</v>
       </c>
       <c r="R18" t="n">
-        <v>7043364.400079632</v>
+        <v>7043267.360629026</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2544,22 +2605,22 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2022-11-13</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>08:45</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2022-11-13</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>08:45</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2574,22 +2635,22 @@
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Johan Råghall</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Johan Råghall, Lina Hällström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111267164</v>
+        <v>104681092</v>
       </c>
       <c r="B19" t="n">
-        <v>89590</v>
+        <v>89673</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2598,39 +2659,41 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>48</v>
+        <v>658</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Romell) Singer</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>591635.2558426465</v>
+        <v>591311.6115370012</v>
       </c>
       <c r="R19" t="n">
-        <v>7043404.693209249</v>
+        <v>7043162.637983168</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2657,7 +2720,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -2667,7 +2730,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
@@ -2681,28 +2744,29 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
+      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Johan Råghall</t>
+          <t>Steve Daurer</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Johan Råghall, Lina Hällström</t>
+          <t>Steve Daurer</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111315147</v>
+        <v>104681102</v>
       </c>
       <c r="B20" t="n">
-        <v>73696</v>
+        <v>55608</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2715,34 +2779,38 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6440</v>
+        <v>102612</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Järpe</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Tetrastes bonasia</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>591620.5314988887</v>
+        <v>591320.6412087205</v>
       </c>
       <c r="R20" t="n">
-        <v>7043403.376114395</v>
+        <v>7043159.769446937</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2769,7 +2837,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -2779,7 +2847,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
@@ -2799,22 +2867,22 @@
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Johan Råghall</t>
+          <t>Steve Daurer</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Johan Råghall, Lina Hällström</t>
+          <t>Steve Daurer</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>104622551</v>
+        <v>104681090</v>
       </c>
       <c r="B21" t="n">
-        <v>89410</v>
+        <v>96334</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2823,39 +2891,46 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5432</v>
+        <v>220787</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Sollefteå, Ång</t>
+          <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>591264.8652523692</v>
+        <v>591311.6115370012</v>
       </c>
       <c r="R21" t="n">
-        <v>7043217.144234532</v>
+        <v>7043162.637983168</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -2882,22 +2957,22 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2022-11-13</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>08:45</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2022-11-13</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>08:45</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2906,28 +2981,29 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
+      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Steve Daurer</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Steve Daurer</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>104622518</v>
+        <v>104681096</v>
       </c>
       <c r="B22" t="n">
-        <v>89392</v>
+        <v>96334</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2936,39 +3012,46 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Sollefteå, Ång</t>
+          <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>591225.9893459696</v>
+        <v>591327.3964939628</v>
       </c>
       <c r="R22" t="n">
-        <v>7043215.583779484</v>
+        <v>7043173.813054159</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -2995,22 +3078,22 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2022-11-13</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>08:45</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2022-11-13</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>08:45</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3019,28 +3102,29 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
+      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Steve Daurer</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Steve Daurer</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>104622823</v>
+        <v>104681103</v>
       </c>
       <c r="B23" t="n">
-        <v>89392</v>
+        <v>89673</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3053,35 +3137,37 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Sollefteå, Ång</t>
+          <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>591305.7109081034</v>
+        <v>591320.6412087205</v>
       </c>
       <c r="R23" t="n">
-        <v>7043165.596235943</v>
+        <v>7043159.769446937</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3108,22 +3194,22 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2022-11-13</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>08:45</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2022-11-13</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>08:45</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3132,28 +3218,29 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
+      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Steve Daurer</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Steve Daurer</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>104681051</v>
+        <v>104681101</v>
       </c>
       <c r="B24" t="n">
-        <v>96334</v>
+        <v>89577</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3166,31 +3253,26 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>220787</v>
+        <v>48</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
+          <t>(Romell) Singer</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
@@ -3198,10 +3280,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>591251.4437989765</v>
+        <v>591320.6412087205</v>
       </c>
       <c r="R24" t="n">
-        <v>7043185.932821126</v>
+        <v>7043159.769446937</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3271,10 +3353,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>104681045</v>
+        <v>104681097</v>
       </c>
       <c r="B25" t="n">
-        <v>96334</v>
+        <v>89673</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3283,35 +3365,30 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
@@ -3319,10 +3396,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>591249.3105024131</v>
+        <v>591327.3964939628</v>
       </c>
       <c r="R25" t="n">
-        <v>7043197.93442897</v>
+        <v>7043173.813054159</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3392,10 +3469,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>104681082</v>
+        <v>111273661</v>
       </c>
       <c r="B26" t="n">
-        <v>56540</v>
+        <v>89686</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3408,45 +3485,37 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>103021</v>
+        <v>658</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>591298.2133711505</v>
+        <v>591636.9769660851</v>
       </c>
       <c r="R26" t="n">
-        <v>7043177.444135577</v>
+        <v>7043422.612332962</v>
       </c>
       <c r="S26" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3470,7 +3539,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
@@ -3480,7 +3549,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
@@ -3500,22 +3569,22 @@
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Steve Daurer</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Steve Daurer</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>104681048</v>
+        <v>111273656</v>
       </c>
       <c r="B27" t="n">
-        <v>89392</v>
+        <v>73696</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3528,40 +3597,37 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1202</v>
+        <v>6440</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>591249.3105024131</v>
+        <v>591725.0424782543</v>
       </c>
       <c r="R27" t="n">
-        <v>7043197.93442897</v>
+        <v>7043424.7006835</v>
       </c>
       <c r="S27" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3585,7 +3651,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
@@ -3595,7 +3661,7 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
@@ -3609,29 +3675,28 @@
       <c r="AE27" t="b">
         <v>0</v>
       </c>
-      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
       </c>
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Steve Daurer</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Steve Daurer</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>104681075</v>
+        <v>111273663</v>
       </c>
       <c r="B28" t="n">
-        <v>89577</v>
+        <v>89686</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3640,44 +3705,41 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>48</v>
+        <v>658</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Romell) Singer</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>591279.0299158915</v>
+        <v>591652.4436271309</v>
       </c>
       <c r="R28" t="n">
-        <v>7043191.190934213</v>
+        <v>7043413.675855185</v>
       </c>
       <c r="S28" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3701,7 +3763,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
@@ -3711,7 +3773,7 @@
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
@@ -3725,29 +3787,28 @@
       <c r="AE28" t="b">
         <v>0</v>
       </c>
-      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
       </c>
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Steve Daurer</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Steve Daurer</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>104681053</v>
+        <v>111273670</v>
       </c>
       <c r="B29" t="n">
-        <v>89392</v>
+        <v>77515</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3760,40 +3821,37 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>591251.4437989765</v>
+        <v>591622.4606337334</v>
       </c>
       <c r="R29" t="n">
-        <v>7043185.932821126</v>
+        <v>7043398.517451782</v>
       </c>
       <c r="S29" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -3817,7 +3875,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
@@ -3827,7 +3885,7 @@
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
@@ -3841,29 +3899,28 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
-      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>Steve Daurer</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Steve Daurer</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>104681080</v>
+        <v>111273659</v>
       </c>
       <c r="B30" t="n">
-        <v>89673</v>
+        <v>89845</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3872,44 +3929,41 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>658</v>
+        <v>1209</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>591298.2133711505</v>
+        <v>591495.2093399345</v>
       </c>
       <c r="R30" t="n">
-        <v>7043177.444135577</v>
+        <v>7043327.847347787</v>
       </c>
       <c r="S30" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -3933,7 +3987,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
@@ -3943,7 +3997,7 @@
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
@@ -3957,29 +4011,28 @@
       <c r="AE30" t="b">
         <v>0</v>
       </c>
-      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
       </c>
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Steve Daurer</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Steve Daurer</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>104681033</v>
+        <v>111273666</v>
       </c>
       <c r="B31" t="n">
-        <v>96334</v>
+        <v>96348</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4009,28 +4062,20 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>591211.9666893056</v>
+        <v>591499.5271172373</v>
       </c>
       <c r="R31" t="n">
-        <v>7043205.353362232</v>
+        <v>7043317.696102448</v>
       </c>
       <c r="S31" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -4054,7 +4099,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
@@ -4064,7 +4109,7 @@
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
@@ -4078,29 +4123,28 @@
       <c r="AE31" t="b">
         <v>0</v>
       </c>
-      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
       </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Steve Daurer</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Steve Daurer</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>104681041</v>
+        <v>111273655</v>
       </c>
       <c r="B32" t="n">
-        <v>89392</v>
+        <v>73696</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4113,40 +4157,37 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1202</v>
+        <v>6440</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>591211.9666893056</v>
+        <v>591622.4606337334</v>
       </c>
       <c r="R32" t="n">
-        <v>7043205.353362232</v>
+        <v>7043398.517451782</v>
       </c>
       <c r="S32" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4170,7 +4211,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
@@ -4180,7 +4221,7 @@
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
@@ -4194,29 +4235,28 @@
       <c r="AE32" t="b">
         <v>0</v>
       </c>
-      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
       </c>
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Steve Daurer</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Steve Daurer</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>104622738</v>
+        <v>111273672</v>
       </c>
       <c r="B33" t="n">
-        <v>78569</v>
+        <v>77515</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4229,38 +4269,37 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Sollefteå, Ång</t>
+          <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>591370.1294540192</v>
+        <v>591719.3732997013</v>
       </c>
       <c r="R33" t="n">
-        <v>7043181.293393185</v>
+        <v>7043419.6232786</v>
       </c>
       <c r="S33" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -4284,22 +4323,22 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>2022-11-13</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>08:45</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>2022-11-13</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>08:45</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4314,22 +4353,22 @@
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>104622636</v>
+        <v>111273660</v>
       </c>
       <c r="B34" t="n">
-        <v>89392</v>
+        <v>89845</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4338,42 +4377,41 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Sollefteå, Ång</t>
+          <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>591343.9067822314</v>
+        <v>591641.1794901572</v>
       </c>
       <c r="R34" t="n">
-        <v>7043222.090614219</v>
+        <v>7043416.478903031</v>
       </c>
       <c r="S34" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -4397,22 +4435,22 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2022-11-13</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>08:45</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>2022-11-13</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>08:45</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4427,22 +4465,22 @@
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>104622742</v>
+        <v>111273669</v>
       </c>
       <c r="B35" t="n">
-        <v>78569</v>
+        <v>77515</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4455,38 +4493,37 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Sollefteå, Ång</t>
+          <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>591361.4199005438</v>
+        <v>591616.806528918</v>
       </c>
       <c r="R35" t="n">
-        <v>7043173.001690743</v>
+        <v>7043377.357856153</v>
       </c>
       <c r="S35" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4510,22 +4547,22 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>2022-11-13</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>08:45</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>2022-11-13</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>08:45</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4540,22 +4577,22 @@
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>104622760</v>
+        <v>111273667</v>
       </c>
       <c r="B36" t="n">
-        <v>89673</v>
+        <v>89423</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4568,38 +4605,37 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>658</v>
+        <v>5432</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Sollefteå, Ång</t>
+          <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>591328.3800968044</v>
+        <v>591618.866522243</v>
       </c>
       <c r="R36" t="n">
-        <v>7043170.713859768</v>
+        <v>7043352.399297187</v>
       </c>
       <c r="S36" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4623,22 +4659,22 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>2022-11-13</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>08:45</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>2022-11-13</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>08:45</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4653,22 +4689,22 @@
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>104622646</v>
+        <v>111273664</v>
       </c>
       <c r="B37" t="n">
-        <v>78569</v>
+        <v>89590</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4677,42 +4713,41 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6458</v>
+        <v>48</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Romell) Singer</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Sollefteå, Ång</t>
+          <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>591380.186519376</v>
+        <v>591673.2841504611</v>
       </c>
       <c r="R37" t="n">
-        <v>7043267.360629026</v>
+        <v>7043420.083276978</v>
       </c>
       <c r="S37" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -4736,22 +4771,22 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>2022-11-13</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>08:45</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>2022-11-13</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>08:45</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4766,22 +4801,22 @@
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Lina Hällström</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>104681092</v>
+        <v>111315145</v>
       </c>
       <c r="B38" t="n">
-        <v>89673</v>
+        <v>89845</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4790,41 +4825,38 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>658</v>
+        <v>1209</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>591311.6115370012</v>
+        <v>591478.5830416525</v>
       </c>
       <c r="R38" t="n">
-        <v>7043162.637983168</v>
+        <v>7043314.860723522</v>
       </c>
       <c r="S38" t="n">
         <v>25</v>
@@ -4851,7 +4883,7 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
@@ -4861,7 +4893,7 @@
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="AB38" t="inlineStr">
@@ -4875,29 +4907,28 @@
       <c r="AE38" t="b">
         <v>0</v>
       </c>
-      <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="b">
         <v>0</v>
       </c>
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Steve Daurer</t>
+          <t>Johan Råghall</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Steve Daurer</t>
+          <t>Johan Råghall, Lina Hällström</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>104681102</v>
+        <v>111315149</v>
       </c>
       <c r="B39" t="n">
-        <v>55608</v>
+        <v>89686</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4910,38 +4941,34 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>102612</v>
+        <v>658</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Järpe</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Tetrastes bonasia</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>591320.6412087205</v>
+        <v>591670.9593730925</v>
       </c>
       <c r="R39" t="n">
-        <v>7043159.769446937</v>
+        <v>7043423.143536596</v>
       </c>
       <c r="S39" t="n">
         <v>25</v>
@@ -4968,7 +4995,7 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
@@ -4978,7 +5005,7 @@
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="AB39" t="inlineStr">
@@ -4998,22 +5025,22 @@
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Steve Daurer</t>
+          <t>Johan Råghall</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Steve Daurer</t>
+          <t>Johan Råghall, Lina Hällström</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>104681090</v>
+        <v>111315148</v>
       </c>
       <c r="B40" t="n">
-        <v>96334</v>
+        <v>89686</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5022,46 +5049,38 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>591311.6115370012</v>
+        <v>591645.4590963478</v>
       </c>
       <c r="R40" t="n">
-        <v>7043162.637983168</v>
+        <v>7043407.667238996</v>
       </c>
       <c r="S40" t="n">
         <v>25</v>
@@ -5088,7 +5107,7 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
@@ -5098,7 +5117,7 @@
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="AB40" t="inlineStr">
@@ -5112,29 +5131,28 @@
       <c r="AE40" t="b">
         <v>0</v>
       </c>
-      <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="b">
         <v>0</v>
       </c>
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
         <is>
-          <t>Steve Daurer</t>
+          <t>Johan Råghall</t>
         </is>
       </c>
       <c r="AX40" t="inlineStr">
         <is>
-          <t>Steve Daurer</t>
+          <t>Johan Råghall, Lina Hällström</t>
         </is>
       </c>
       <c r="AY40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>104681096</v>
+        <v>111268460</v>
       </c>
       <c r="B41" t="n">
-        <v>96334</v>
+        <v>89686</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5143,46 +5161,39 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr"/>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>591327.3964939628</v>
+        <v>591472.6953434804</v>
       </c>
       <c r="R41" t="n">
-        <v>7043173.813054159</v>
+        <v>7043317.372138057</v>
       </c>
       <c r="S41" t="n">
         <v>25</v>
@@ -5209,7 +5220,7 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
@@ -5219,7 +5230,7 @@
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="AB41" t="inlineStr">
@@ -5233,29 +5244,28 @@
       <c r="AE41" t="b">
         <v>0</v>
       </c>
-      <c r="AF41" t="inlineStr"/>
       <c r="AG41" t="b">
         <v>0</v>
       </c>
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
         <is>
-          <t>Steve Daurer</t>
+          <t>Johan Råghall</t>
         </is>
       </c>
       <c r="AX41" t="inlineStr">
         <is>
-          <t>Steve Daurer</t>
+          <t>Johan Råghall, Lina Hällström</t>
         </is>
       </c>
       <c r="AY41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>104681103</v>
+        <v>111266420</v>
       </c>
       <c r="B42" t="n">
-        <v>89673</v>
+        <v>73696</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5268,37 +5278,35 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>658</v>
+        <v>6440</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>591320.6412087205</v>
+        <v>591722.3379231346</v>
       </c>
       <c r="R42" t="n">
-        <v>7043159.769446937</v>
+        <v>7043409.880360964</v>
       </c>
       <c r="S42" t="n">
         <v>25</v>
@@ -5325,7 +5333,7 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
@@ -5335,7 +5343,7 @@
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="AB42" t="inlineStr">
@@ -5349,29 +5357,28 @@
       <c r="AE42" t="b">
         <v>0</v>
       </c>
-      <c r="AF42" t="inlineStr"/>
       <c r="AG42" t="b">
         <v>0</v>
       </c>
       <c r="AT42" t="inlineStr"/>
       <c r="AW42" t="inlineStr">
         <is>
-          <t>Steve Daurer</t>
+          <t>Johan Råghall</t>
         </is>
       </c>
       <c r="AX42" t="inlineStr">
         <is>
-          <t>Steve Daurer</t>
+          <t>Johan Råghall, Lina Hällström</t>
         </is>
       </c>
       <c r="AY42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>104681101</v>
+        <v>111315146</v>
       </c>
       <c r="B43" t="n">
-        <v>89577</v>
+        <v>77515</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5380,41 +5387,38 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>48</v>
+        <v>6425</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Romell) Singer</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>591320.6412087205</v>
+        <v>591616.7319226691</v>
       </c>
       <c r="R43" t="n">
-        <v>7043159.769446937</v>
+        <v>7043364.400079632</v>
       </c>
       <c r="S43" t="n">
         <v>25</v>
@@ -5441,7 +5445,7 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
@@ -5451,7 +5455,7 @@
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="AB43" t="inlineStr">
@@ -5465,29 +5469,28 @@
       <c r="AE43" t="b">
         <v>0</v>
       </c>
-      <c r="AF43" t="inlineStr"/>
       <c r="AG43" t="b">
         <v>0</v>
       </c>
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
         <is>
-          <t>Steve Daurer</t>
+          <t>Johan Råghall</t>
         </is>
       </c>
       <c r="AX43" t="inlineStr">
         <is>
-          <t>Steve Daurer</t>
+          <t>Johan Råghall, Lina Hällström</t>
         </is>
       </c>
       <c r="AY43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>104681097</v>
+        <v>111267164</v>
       </c>
       <c r="B44" t="n">
-        <v>89673</v>
+        <v>89590</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5496,41 +5499,39 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>658</v>
+        <v>48</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Romell) Singer</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>591327.3964939628</v>
+        <v>591635.2558426465</v>
       </c>
       <c r="R44" t="n">
-        <v>7043173.813054159</v>
+        <v>7043404.693209249</v>
       </c>
       <c r="S44" t="n">
         <v>25</v>
@@ -5557,7 +5558,7 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
@@ -5567,7 +5568,7 @@
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="AB44" t="inlineStr">
@@ -5581,29 +5582,28 @@
       <c r="AE44" t="b">
         <v>0</v>
       </c>
-      <c r="AF44" t="inlineStr"/>
       <c r="AG44" t="b">
         <v>0</v>
       </c>
       <c r="AT44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
         <is>
-          <t>Steve Daurer</t>
+          <t>Johan Råghall</t>
         </is>
       </c>
       <c r="AX44" t="inlineStr">
         <is>
-          <t>Steve Daurer</t>
+          <t>Johan Råghall, Lina Hällström</t>
         </is>
       </c>
       <c r="AY44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111273659</v>
+        <v>111268512</v>
       </c>
       <c r="B45" t="n">
-        <v>89845</v>
+        <v>56398</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5612,41 +5612,47 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1209</v>
+        <v>100109</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P45" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>591495.2093399345</v>
+        <v>591472.6953434804</v>
       </c>
       <c r="R45" t="n">
-        <v>7043327.847347787</v>
+        <v>7043317.372138057</v>
       </c>
       <c r="S45" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -5700,22 +5706,22 @@
       <c r="AT45" t="inlineStr"/>
       <c r="AW45" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Johan Råghall</t>
         </is>
       </c>
       <c r="AX45" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Johan Råghall, Lina Hällström</t>
         </is>
       </c>
       <c r="AY45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111273666</v>
+        <v>111315143</v>
       </c>
       <c r="B46" t="n">
-        <v>96348</v>
+        <v>89686</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5724,25 +5730,25 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5752,13 +5758,13 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>591499.5271172373</v>
+        <v>591477.5224061215</v>
       </c>
       <c r="R46" t="n">
-        <v>7043317.696102448</v>
+        <v>7043320.638036993</v>
       </c>
       <c r="S46" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -5812,22 +5818,22 @@
       <c r="AT46" t="inlineStr"/>
       <c r="AW46" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Johan Råghall</t>
         </is>
       </c>
       <c r="AX46" t="inlineStr">
         <is>
-          <t>Lina Hällström</t>
+          <t>Johan Råghall, Lina Hällström</t>
         </is>
       </c>
       <c r="AY46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111315145</v>
+        <v>111315139</v>
       </c>
       <c r="B47" t="n">
-        <v>89845</v>
+        <v>96348</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5840,34 +5846,38 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1209</v>
+        <v>220787</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P47" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>591478.5830416525</v>
+        <v>591510.9235177813</v>
       </c>
       <c r="R47" t="n">
-        <v>7043314.860723522</v>
+        <v>7043279.155835367</v>
       </c>
       <c r="S47" t="n">
         <v>25</v>
@@ -5910,6 +5920,11 @@
       <c r="AB47" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC47" t="inlineStr">
+        <is>
+          <t>Plus massor av bladrosetter</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5936,10 +5951,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111268460</v>
+        <v>111315141</v>
       </c>
       <c r="B48" t="n">
-        <v>89686</v>
+        <v>96348</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5948,39 +5963,42 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="P48" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>591472.6953434804</v>
+        <v>591486.5005135566</v>
       </c>
       <c r="R48" t="n">
-        <v>7043317.372138057</v>
+        <v>7043319.555657836</v>
       </c>
       <c r="S48" t="n">
         <v>25</v>
@@ -6049,10 +6067,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111268512</v>
+        <v>111315151</v>
       </c>
       <c r="B49" t="n">
-        <v>56398</v>
+        <v>89590</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6061,44 +6079,38 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>100109</v>
+        <v>48</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Romell) Singer</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P49" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>591472.6953434804</v>
+        <v>591670.9593730925</v>
       </c>
       <c r="R49" t="n">
-        <v>7043317.372138057</v>
+        <v>7043423.143536596</v>
       </c>
       <c r="S49" t="n">
         <v>25</v>
@@ -6167,10 +6179,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111315143</v>
+        <v>111315147</v>
       </c>
       <c r="B50" t="n">
-        <v>89686</v>
+        <v>73696</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6183,21 +6195,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>658</v>
+        <v>6440</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6207,10 +6219,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>591477.5224061215</v>
+        <v>591620.5314988887</v>
       </c>
       <c r="R50" t="n">
-        <v>7043320.638036993</v>
+        <v>7043403.376114395</v>
       </c>
       <c r="S50" t="n">
         <v>25</v>
@@ -6279,10 +6291,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111315139</v>
+        <v>111266309</v>
       </c>
       <c r="B51" t="n">
-        <v>96348</v>
+        <v>77515</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6291,42 +6303,39 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>591510.9235177813</v>
+        <v>591747.0822552936</v>
       </c>
       <c r="R51" t="n">
-        <v>7043279.155835367</v>
+        <v>7043436.057239689</v>
       </c>
       <c r="S51" t="n">
         <v>25</v>
@@ -6369,11 +6378,6 @@
       <c r="AB51" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC51" t="inlineStr">
-        <is>
-          <t>Plus massor av bladrosetter</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6400,10 +6404,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111315141</v>
+        <v>111315150</v>
       </c>
       <c r="B52" t="n">
-        <v>96348</v>
+        <v>89369</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6412,42 +6416,38 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>220787</v>
+        <v>5447</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
           <t>Getstugeberget, Ång</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>591486.5005135566</v>
+        <v>591671.190636521</v>
       </c>
       <c r="R52" t="n">
-        <v>7043319.555657836</v>
+        <v>7043415.108879722</v>
       </c>
       <c r="S52" t="n">
         <v>25</v>
